--- a/api/instance/files/maxdiff.xlsx
+++ b/api/instance/files/maxdiff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiusglobalmarketrese-my.sharepoint.com/personal/ebanks_radiusinsights_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{982116CE-1556-4501-BBD5-32ABACEEF260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5725795C-72DD-4FA4-8C69-61A971366CBE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{982116CE-1556-4501-BBD5-32ABACEEF260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F78B300-2543-4CF5-8702-A8DF61B96A66}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1070" windowWidth="19200" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="90" windowWidth="31260" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores - March 28th" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +387,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -548,9 +554,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,12 +916,12 @@
   <dimension ref="A1:O1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O14" sqref="A1:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>1.44666817748761</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>112</v>
       </c>
@@ -1055,101 +1062,101 @@
         <v>-1.3463392254461299</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>119</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.42093882895048002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>-0.76300234411238499</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.22935232838120401</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>-0.877008023209085</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>-0.212065127499555</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>-1.8628839511816699</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>-0.88453857080273501</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>-0.239028643794125</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.28392831734961399</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>0.75298440795242405</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>1.7016834229381601</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>-0.32015360118681502</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>0.37442240725244402</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>1.8163093779125199</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>161</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.38861979713902101</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>-0.20778345750514801</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.29415930522460099</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.99792214178120098</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>8.7162320734971696E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>-1.0229756766778999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>-1.3867400049377701</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.65232405446716102</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.80819161731051103</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>-9.5643704451446196E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>-0.14446572528342699</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.97693493353219096</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>-0.18477743156625001</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>-0.77430837262868801</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>224</v>
       </c>
@@ -1196,195 +1203,195 @@
         <v>-0.19176232970409099</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>272</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.58269163910033095</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.41088814638094801</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>-2.2829096817254499</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1.9267427192069999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.78398773848619796</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>-0.30044809882167101</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>-3.2445134525595098</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1.2876599481531601</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>-5.1360323002131503E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>-0.51306567747812104</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>-1.17698166964019</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.64835112912571802</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>-0.29842643920191098</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>2.8100756610759401</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>341</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.56461719505530505</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>-0.199641220378484</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>2.7047195032518099</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>-1.5197334192822101</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>-2.7583572834354402</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>-1.28687996535642</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>-6.1699966217434399E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>-1.23649197380336</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>-0.83158317640096402</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.28136212557451501</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>1.48788325808702</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>0.32612757836268502</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>1.6226206262341001</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>1.4716739133641801</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>509</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.36722421017201201</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>-0.99013956642024703</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>1.3218559127115399</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>-0.473686805917029</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.50067332881042104</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.35821327776298001</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0.58051599208483096</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.18260989710908099</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>2.7581183816280899E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>-4.8523025630389002E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>-0.57808588690811402</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>-0.30264704504776802</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>0.76742094568650998</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>-1.3457882080580901</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>520</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.57334115090534998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>-0.39283875070456997</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.28628006449604898</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>-2.2382019419172101</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>-1.49721195984662</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>-0.61675681038974395</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>1.94697732766911</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>1.52671438455796</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>-1.69990156630825</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>-0.33908340106497697</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>2.6103886821820201</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>-1.00964521432766</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>1.54768536502725</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>-0.124406179373345</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>626</v>
       </c>
@@ -1431,101 +1438,101 @@
         <v>-1.3453391169040301</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>696</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.64398071674836999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>8.9420103286059708E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>2.2608230634700202</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>-3.1715773382897399</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>-4.0107147510657102</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>-1.48327052198994</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>1.12725588568322</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>0.109072099719645</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>-1.2405333073509499</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>0.177266345839385</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>3.7822907949683602</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>-1.1665305077405099</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>1.7205296289124701</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>1.8864465975151401</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>714</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.41614872067431802</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>-0.29527153677329498</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.19937480687249401</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.19573627552103401</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>-0.423042227698255</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.68679901235827401</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>-1.37814741547168</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>1.3994449618532701</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>1.4885385199961301</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>0.16368798614067401</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>-0.385980063300015</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>0.59868241238285402</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>-0.63102053149177395</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>-1.61880220038972</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>720</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>0.57215496520445097</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>774</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>0.78603316563147196</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>785</v>
       </c>
@@ -1666,7 +1673,7 @@
         <v>1.7546431584682201</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>787</v>
       </c>
@@ -1713,7 +1720,7 @@
         <v>1.50330894732819</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>878</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>1.6306529241902401</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>892</v>
       </c>
@@ -1807,7 +1814,7 @@
         <v>1.0567453947752199</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>906</v>
       </c>
@@ -1854,7 +1861,7 @@
         <v>1.52375649608402</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>912</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>-1.2059482989145101</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>913</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>-1.0449066381233101</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>929</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>1.59141123206142</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>952</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>0.88390949861921297</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>978</v>
       </c>
@@ -2089,7 +2096,7 @@
         <v>-0.79822698809327997</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1055</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>1.2810370355021099</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1167</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>0.92235974278932198</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1225</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>0.220997702562993</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1301</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>-1.1317532551665199</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1330</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>1.6392682548905499</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1335</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>-1.659990930357</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1340</v>
       </c>
@@ -2418,7 +2425,7 @@
         <v>-1.48938013820732</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1341</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>-0.83334877111847705</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1400</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>0.92555635714892204</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1405</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>2.3769090464066802</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1424</v>
       </c>
@@ -2606,7 +2613,7 @@
         <v>-1.3893268391648601</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1557</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>0.75716934067906305</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1617</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>0.215953884801833</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1769</v>
       </c>
@@ -2747,7 +2754,7 @@
         <v>-1.3242165784426601</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1914</v>
       </c>
@@ -2794,7 +2801,7 @@
         <v>-2.5096730436021102</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2127</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>0.56823116807719798</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2128</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>-0.16400332990917499</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2131</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>1.4259234589792</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2150</v>
       </c>
@@ -2982,7 +2989,7 @@
         <v>-0.79715592156466797</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2160</v>
       </c>
@@ -3029,7 +3036,7 @@
         <v>-1.73915001429004</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2194</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>-0.83313248741633195</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2236</v>
       </c>
@@ -3123,7 +3130,7 @@
         <v>0.37200488865149101</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2267</v>
       </c>
@@ -3170,7 +3177,7 @@
         <v>-0.87644775459003699</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2618</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>-1.4914504729321201</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2755</v>
       </c>
@@ -3264,7 +3271,7 @@
         <v>-0.62169884499876604</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3074</v>
       </c>
@@ -3311,7 +3318,7 @@
         <v>0.69815376060182799</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3143</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>1.2510460727777799</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3226</v>
       </c>
@@ -3405,7 +3412,7 @@
         <v>2.82510441713486</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3356</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>0.15819545070989699</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3417</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>1.2052536450239899</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3438</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>-2.24671788092189</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3690</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>-1.37081288227455</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3754</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>2.6363962729815098</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3816</v>
       </c>
@@ -3687,7 +3694,7 @@
         <v>0.57908967300706904</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3875</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>-1.2213092186718399</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4076</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>0.48203234008392998</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4120</v>
       </c>
@@ -3828,7 +3835,7 @@
         <v>0.66846968503710402</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4121</v>
       </c>
@@ -3875,7 +3882,7 @@
         <v>2.4029162118138998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4138</v>
       </c>
@@ -3922,7 +3929,7 @@
         <v>1.26471381103945</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4157</v>
       </c>
@@ -3969,7 +3976,7 @@
         <v>-1.30340414371127</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4189</v>
       </c>
@@ -4016,7 +4023,7 @@
         <v>-0.409400955602721</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4206</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>-1.10847845159122</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4208</v>
       </c>
@@ -4110,7 +4117,7 @@
         <v>-2.2589091107188701</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4218</v>
       </c>
@@ -4157,7 +4164,7 @@
         <v>1.37958234015415</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4268</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>0.61577698320409302</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4310</v>
       </c>
@@ -4251,7 +4258,7 @@
         <v>0.58880743508669897</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4353</v>
       </c>
@@ -4298,7 +4305,7 @@
         <v>1.33761902723543</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4410</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>-0.63413692129820898</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4654</v>
       </c>
@@ -4392,7 +4399,7 @@
         <v>1.33517710592582</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4673</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>-2.3918434670818298</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4676</v>
       </c>
@@ -4486,7 +4493,7 @@
         <v>0.99769932397208405</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4679</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>0.70149474386556798</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4683</v>
       </c>
@@ -4580,7 +4587,7 @@
         <v>-0.38018790313842199</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4714</v>
       </c>
@@ -4627,7 +4634,7 @@
         <v>0.19506186932799099</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4715</v>
       </c>
@@ -4674,7 +4681,7 @@
         <v>-1.20833704277166</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4737</v>
       </c>
@@ -4721,7 +4728,7 @@
         <v>2.6242572794341399</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4753</v>
       </c>
@@ -4768,7 +4775,7 @@
         <v>-0.60878623736543902</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4764</v>
       </c>
@@ -4815,7 +4822,7 @@
         <v>1.2696306384381399</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4795</v>
       </c>
@@ -4862,7 +4869,7 @@
         <v>2.16625430495167</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4811</v>
       </c>
@@ -4909,7 +4916,7 @@
         <v>1.47213988256978</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4816</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>1.36878525481933</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4877</v>
       </c>
@@ -5003,7 +5010,7 @@
         <v>-0.669176144873176</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4940</v>
       </c>
@@ -5050,7 +5057,7 @@
         <v>-1.3088623359276701</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4998</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>-2.0866239530681399</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5048</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>2.4044657600464499</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5062</v>
       </c>
@@ -5191,7 +5198,7 @@
         <v>-0.25728555222946897</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5063</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>2.8268215815692201</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5071</v>
       </c>
@@ -5285,7 +5292,7 @@
         <v>-1.62453977398475</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5085</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>-0.60072153564402897</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5089</v>
       </c>
@@ -5379,7 +5386,7 @@
         <v>0.121045345304195</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5132</v>
       </c>
@@ -5426,7 +5433,7 @@
         <v>-1.62828216563887</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5139</v>
       </c>
@@ -5473,7 +5480,7 @@
         <v>-0.64632096666138905</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5152</v>
       </c>
@@ -5520,7 +5527,7 @@
         <v>-2.1024610218053299</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5154</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>0.55392467336430395</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5157</v>
       </c>
@@ -5614,7 +5621,7 @@
         <v>5.2948723473965897E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5164</v>
       </c>
@@ -5661,7 +5668,7 @@
         <v>2.12189242398634E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5201</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>-0.196566249634579</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5214</v>
       </c>
@@ -5755,7 +5762,7 @@
         <v>2.1643259842918599</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5240</v>
       </c>
@@ -5802,7 +5809,7 @@
         <v>1.5358761363392099</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5258</v>
       </c>
@@ -5849,7 +5856,7 @@
         <v>1.3940654675567199</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5262</v>
       </c>
@@ -5896,7 +5903,7 @@
         <v>0.53126580917170396</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5264</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>1.2745977869984599</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5270</v>
       </c>
@@ -5990,7 +5997,7 @@
         <v>-1.25333537050591</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5294</v>
       </c>
@@ -6037,7 +6044,7 @@
         <v>-0.57503679950602604</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5295</v>
       </c>
@@ -6084,7 +6091,7 @@
         <v>-1.0871293854979101</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5314</v>
       </c>
@@ -6131,7 +6138,7 @@
         <v>-0.34348894763321902</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5341</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>0.77921318687234298</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5342</v>
       </c>
@@ -6225,7 +6232,7 @@
         <v>2.4142827121504098</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5343</v>
       </c>
@@ -6272,7 +6279,7 @@
         <v>0.64082678493366296</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5344</v>
       </c>
@@ -6319,7 +6326,7 @@
         <v>0.56159152161043602</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5348</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>-0.69713899339268703</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5388</v>
       </c>
@@ -6413,7 +6420,7 @@
         <v>0.970677777396448</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5399</v>
       </c>
@@ -6460,7 +6467,7 @@
         <v>2.48456339821026</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5409</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>0.72306848306396698</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5419</v>
       </c>
@@ -6554,7 +6561,7 @@
         <v>-0.33444723682578398</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5424</v>
       </c>
@@ -6601,7 +6608,7 @@
         <v>-0.26018911636561898</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5433</v>
       </c>
@@ -6648,7 +6655,7 @@
         <v>2.3539355050781299</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5436</v>
       </c>
@@ -6695,7 +6702,7 @@
         <v>1.6586377917610899</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5437</v>
       </c>
@@ -6742,7 +6749,7 @@
         <v>-0.687832629234852</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5492</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>0.72524186419653802</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5501</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>-0.25271234745590399</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5514</v>
       </c>
@@ -6883,7 +6890,7 @@
         <v>2.2310310406233</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5517</v>
       </c>
@@ -6930,7 +6937,7 @@
         <v>2.1879411002192901</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5533</v>
       </c>
@@ -6977,7 +6984,7 @@
         <v>1.2203811519788201E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5535</v>
       </c>
@@ -7024,7 +7031,7 @@
         <v>-1.9878377763411801</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5547</v>
       </c>
@@ -7071,7 +7078,7 @@
         <v>-0.15007751269348299</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5571</v>
       </c>
@@ -7118,7 +7125,7 @@
         <v>-0.93012318572407304</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5585</v>
       </c>
@@ -7165,7 +7172,7 @@
         <v>-0.21059063235585199</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5595</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>0.48587895762288902</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5603</v>
       </c>
@@ -7259,7 +7266,7 @@
         <v>1.6225882208723199</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5611</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>1.4638557005036099</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5657</v>
       </c>
@@ -7353,7 +7360,7 @@
         <v>1.5157553766118199</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5703</v>
       </c>
@@ -7400,7 +7407,7 @@
         <v>-0.56074775781803199</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5709</v>
       </c>
@@ -7447,7 +7454,7 @@
         <v>0.51234739924172001</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5711</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>3.0986340201626801</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5741</v>
       </c>
@@ -7541,7 +7548,7 @@
         <v>5.2803299899438598E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5778</v>
       </c>
@@ -7588,7 +7595,7 @@
         <v>-0.56173316354860303</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5788</v>
       </c>
@@ -7635,7 +7642,7 @@
         <v>1.8691262958506101</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5815</v>
       </c>
@@ -7682,7 +7689,7 @@
         <v>0.44130503357475998</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5834</v>
       </c>
@@ -7729,7 +7736,7 @@
         <v>1.99758492372753</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5844</v>
       </c>
@@ -7776,7 +7783,7 @@
         <v>1.4117819158793301</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5939</v>
       </c>
@@ -7823,7 +7830,7 @@
         <v>2.5182353968048599</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5959</v>
       </c>
@@ -7870,7 +7877,7 @@
         <v>1.1840852454964499</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5982</v>
       </c>
@@ -7917,7 +7924,7 @@
         <v>-0.59198199733263901</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6032</v>
       </c>
@@ -7964,7 +7971,7 @@
         <v>-0.89095766298645895</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6046</v>
       </c>
@@ -8011,7 +8018,7 @@
         <v>-0.13200053857217101</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6057</v>
       </c>
@@ -8058,7 +8065,7 @@
         <v>-0.42068132881158699</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6097</v>
       </c>
@@ -8105,7 +8112,7 @@
         <v>2.3229006656855899</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6105</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>0.75473430710825196</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6121</v>
       </c>
@@ -8199,7 +8206,7 @@
         <v>0.71313140761352301</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6130</v>
       </c>
@@ -8246,7 +8253,7 @@
         <v>1.2328918504042199</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6133</v>
       </c>
@@ -8293,7 +8300,7 @@
         <v>0.96049973451793302</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6193</v>
       </c>
@@ -8340,7 +8347,7 @@
         <v>-1.4868311280272699</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6219</v>
       </c>
@@ -8387,7 +8394,7 @@
         <v>0.97495232663640097</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6249</v>
       </c>
@@ -8434,7 +8441,7 @@
         <v>2.0617029072772399</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6329</v>
       </c>
@@ -8481,7 +8488,7 @@
         <v>1.5336843028026901</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6431</v>
       </c>
@@ -8528,7 +8535,7 @@
         <v>1.5120784821526101E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6540</v>
       </c>
@@ -8575,7 +8582,7 @@
         <v>-0.521414455978088</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6581</v>
       </c>
@@ -8622,7 +8629,7 @@
         <v>-1.2073695404314699</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6605</v>
       </c>
@@ -8669,7 +8676,7 @@
         <v>-0.16977718632015701</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6694</v>
       </c>
@@ -8716,7 +8723,7 @@
         <v>1.58677884694375</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6759</v>
       </c>
@@ -8763,7 +8770,7 @@
         <v>0.35852495681492902</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6790</v>
       </c>
@@ -8810,7 +8817,7 @@
         <v>2.46135378382185</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6845</v>
       </c>
@@ -8857,7 +8864,7 @@
         <v>-0.75811085713724602</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6888</v>
       </c>
@@ -8904,7 +8911,7 @@
         <v>0.18433750079406</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6889</v>
       </c>
@@ -8951,7 +8958,7 @@
         <v>-0.51424046489032305</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6918</v>
       </c>
@@ -8998,7 +9005,7 @@
         <v>-1.62961592611336</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6933</v>
       </c>
@@ -9045,7 +9052,7 @@
         <v>1.37334073838952</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6957</v>
       </c>
@@ -9092,7 +9099,7 @@
         <v>1.1710800259862499</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7075</v>
       </c>
@@ -9139,7 +9146,7 @@
         <v>-2.3939863183512302</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7085</v>
       </c>
@@ -9186,7 +9193,7 @@
         <v>-1.71178802871337</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7174</v>
       </c>
@@ -9233,7 +9240,7 @@
         <v>0.29887217900662599</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7202</v>
       </c>
@@ -9280,7 +9287,7 @@
         <v>2.8206907056523098</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7210</v>
       </c>
@@ -9327,7 +9334,7 @@
         <v>2.5067675350745402</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>7233</v>
       </c>
@@ -9374,7 +9381,7 @@
         <v>-0.48060884464248899</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>7265</v>
       </c>
@@ -9421,7 +9428,7 @@
         <v>1.4966488194418801</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7359</v>
       </c>
@@ -9468,7 +9475,7 @@
         <v>0.33513485706426499</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>7376</v>
       </c>
@@ -9515,7 +9522,7 @@
         <v>0.31356357762690201</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7377</v>
       </c>
@@ -9562,7 +9569,7 @@
         <v>2.2530950703450201</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7397</v>
       </c>
@@ -9609,7 +9616,7 @@
         <v>-1.66107322625315</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>7418</v>
       </c>
@@ -9656,7 +9663,7 @@
         <v>-1.1623196966712399</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>7446</v>
       </c>
@@ -9703,7 +9710,7 @@
         <v>-0.22462131744383099</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7489</v>
       </c>
@@ -9750,7 +9757,7 @@
         <v>-0.32859535791427702</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>7570</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>-1.51418456604945</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>7627</v>
       </c>
@@ -9844,7 +9851,7 @@
         <v>-1.38597329225731</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>7746</v>
       </c>
@@ -9891,7 +9898,7 @@
         <v>-0.25321514002041601</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7747</v>
       </c>
@@ -9938,7 +9945,7 @@
         <v>1.88884735672022</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7758</v>
       </c>
@@ -9985,7 +9992,7 @@
         <v>0.36424274242119098</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7814</v>
       </c>
@@ -10032,7 +10039,7 @@
         <v>-0.48047385504359302</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7874</v>
       </c>
@@ -10079,7 +10086,7 @@
         <v>-0.20934796118909399</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>7892</v>
       </c>
@@ -10126,7 +10133,7 @@
         <v>-0.45576296279183198</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7934</v>
       </c>
@@ -10173,7 +10180,7 @@
         <v>1.15823758570889</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>7937</v>
       </c>
@@ -10220,7 +10227,7 @@
         <v>2.02404947850511</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8006</v>
       </c>
@@ -10267,7 +10274,7 @@
         <v>-0.39235027126865402</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8033</v>
       </c>
@@ -10314,7 +10321,7 @@
         <v>-0.31761580112165699</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8047</v>
       </c>
@@ -10361,7 +10368,7 @@
         <v>-1.9561151954643801</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8055</v>
       </c>
@@ -10408,7 +10415,7 @@
         <v>-1.50831524769798</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8064</v>
       </c>
@@ -10455,7 +10462,7 @@
         <v>0.35021240240058799</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8085</v>
       </c>
@@ -10502,7 +10509,7 @@
         <v>1.3405396502001501</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>8097</v>
       </c>
@@ -10549,7 +10556,7 @@
         <v>1.80588302573422</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>8108</v>
       </c>
@@ -10596,7 +10603,7 @@
         <v>-0.36550316413886202</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8120</v>
       </c>
@@ -10643,7 +10650,7 @@
         <v>-6.3539625957736795E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>8150</v>
       </c>
@@ -10690,7 +10697,7 @@
         <v>-9.31841113479768E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>8172</v>
       </c>
@@ -10737,7 +10744,7 @@
         <v>0.88534470890449102</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>8174</v>
       </c>
@@ -10784,7 +10791,7 @@
         <v>1.6587493933005399</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>8176</v>
       </c>
@@ -10831,7 +10838,7 @@
         <v>0.65913671761724202</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8177</v>
       </c>
@@ -10878,7 +10885,7 @@
         <v>-0.64619638657523004</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>8184</v>
       </c>
@@ -10925,7 +10932,7 @@
         <v>-0.70681816912501605</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>8190</v>
       </c>
@@ -10972,7 +10979,7 @@
         <v>0.564458424762455</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>8209</v>
       </c>
@@ -11019,7 +11026,7 @@
         <v>1.50913434017596</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8217</v>
       </c>
@@ -11066,7 +11073,7 @@
         <v>-0.83662853222610101</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8235</v>
       </c>
@@ -11113,7 +11120,7 @@
         <v>-0.43082802703133</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>8244</v>
       </c>
@@ -11160,7 +11167,7 @@
         <v>0.31271131493579801</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8247</v>
       </c>
@@ -11207,7 +11214,7 @@
         <v>0.48320580804366903</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>8253</v>
       </c>
@@ -11254,7 +11261,7 @@
         <v>-0.15593201258504</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>8263</v>
       </c>
@@ -11301,7 +11308,7 @@
         <v>-0.76040500106007303</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>8275</v>
       </c>
@@ -11348,7 +11355,7 @@
         <v>-0.86863899756446805</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8284</v>
       </c>
@@ -11395,7 +11402,7 @@
         <v>1.61818503119766</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>8325</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>-0.84195191498383604</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8327</v>
       </c>
@@ -11489,7 +11496,7 @@
         <v>-0.159817960989736</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8340</v>
       </c>
@@ -11536,7 +11543,7 @@
         <v>-0.77953344775229905</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8350</v>
       </c>
@@ -11583,7 +11590,7 @@
         <v>-0.14300877939332399</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>8366</v>
       </c>
@@ -11630,7 +11637,7 @@
         <v>-0.25430246226042302</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8369</v>
       </c>
@@ -11677,7 +11684,7 @@
         <v>0.113073744913972</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>8372</v>
       </c>
@@ -11724,7 +11731,7 @@
         <v>-0.545742786879439</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8396</v>
       </c>
@@ -11771,7 +11778,7 @@
         <v>1.3818157097421799</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>8409</v>
       </c>
@@ -11818,7 +11825,7 @@
         <v>-0.42230139673996597</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>8411</v>
       </c>
@@ -11865,7 +11872,7 @@
         <v>-0.36975810103586598</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8412</v>
       </c>
@@ -11912,7 +11919,7 @@
         <v>0.41643930323466699</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8427</v>
       </c>
@@ -11959,7 +11966,7 @@
         <v>0.293658968914423</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8428</v>
       </c>
@@ -12006,7 +12013,7 @@
         <v>-1.12621110431566</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8433</v>
       </c>
@@ -12053,7 +12060,7 @@
         <v>-0.77627430028794997</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8437</v>
       </c>
@@ -12100,7 +12107,7 @@
         <v>0.104873917580805</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>8438</v>
       </c>
@@ -12147,7 +12154,7 @@
         <v>-0.32979379815319898</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8442</v>
       </c>
@@ -12194,7 +12201,7 @@
         <v>-0.27574030545936601</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8445</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>-0.66474962925717795</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>8446</v>
       </c>
@@ -12288,7 +12295,7 @@
         <v>-0.396225979878298</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8451</v>
       </c>
@@ -12335,7 +12342,7 @@
         <v>0.643153685390361</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>8452</v>
       </c>
@@ -12382,7 +12389,7 @@
         <v>1.7888990425486299E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>8458</v>
       </c>
@@ -12429,7 +12436,7 @@
         <v>1.02866003359896</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>8459</v>
       </c>
@@ -12476,7 +12483,7 @@
         <v>-0.34398900496702001</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>8460</v>
       </c>
@@ -12523,7 +12530,7 @@
         <v>-0.23111896905815599</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>8461</v>
       </c>
@@ -12570,7 +12577,7 @@
         <v>0.60272857535051905</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>8462</v>
       </c>
@@ -12617,7 +12624,7 @@
         <v>0.57417916738303898</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>8467</v>
       </c>
@@ -12664,7 +12671,7 @@
         <v>1.3621848112474599</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>8484</v>
       </c>
@@ -12711,7 +12718,7 @@
         <v>0.27917655084034099</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>8485</v>
       </c>
@@ -12758,7 +12765,7 @@
         <v>0.67785937134082797</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>8501</v>
       </c>
@@ -12805,7 +12812,7 @@
         <v>-1.7488796363553101</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>8502</v>
       </c>
@@ -12852,7 +12859,7 @@
         <v>5.5371858667681101E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>8503</v>
       </c>
@@ -12899,7 +12906,7 @@
         <v>2.8195515943462199</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>8515</v>
       </c>
@@ -12946,7 +12953,7 @@
         <v>1.70473220584376</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>8530</v>
       </c>
@@ -12993,7 +13000,7 @@
         <v>0.54897311281530703</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>8532</v>
       </c>
@@ -13040,7 +13047,7 @@
         <v>-0.57836095150150202</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>8537</v>
       </c>
@@ -13087,7 +13094,7 @@
         <v>1.1865481542596901</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>8540</v>
       </c>
@@ -13134,7 +13141,7 @@
         <v>-0.111620560931257</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>8544</v>
       </c>
@@ -13181,7 +13188,7 @@
         <v>0.77875893141289998</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>8562</v>
       </c>
@@ -13228,7 +13235,7 @@
         <v>1.4758361986967901</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>8567</v>
       </c>
@@ -13275,7 +13282,7 @@
         <v>-2.0676931858438699</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>8574</v>
       </c>
@@ -13322,7 +13329,7 @@
         <v>-0.26804889924998199</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>8578</v>
       </c>
@@ -13369,7 +13376,7 @@
         <v>-1.32787601828508</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>8583</v>
       </c>
@@ -13416,7 +13423,7 @@
         <v>-2.3029368066695399</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>8588</v>
       </c>
@@ -13463,7 +13470,7 @@
         <v>-0.24544738183168499</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>8594</v>
       </c>
@@ -13510,7 +13517,7 @@
         <v>0.13779883189457501</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>8597</v>
       </c>
@@ -13557,7 +13564,7 @@
         <v>-0.23690593710209301</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>8604</v>
       </c>
@@ -13604,7 +13611,7 @@
         <v>-0.53715143682098798</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>8607</v>
       </c>
@@ -13651,7 +13658,7 @@
         <v>-0.37259381480222198</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>8610</v>
       </c>
@@ -13698,7 +13705,7 @@
         <v>-0.39414541597705599</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>8612</v>
       </c>
@@ -13745,7 +13752,7 @@
         <v>-2.5589771612703E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>8616</v>
       </c>
@@ -13792,7 +13799,7 @@
         <v>-2.37659565363237</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>8643</v>
       </c>
@@ -13839,7 +13846,7 @@
         <v>1.5914985736240701</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>8654</v>
       </c>
@@ -13886,7 +13893,7 @@
         <v>-0.259075560268825</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>8657</v>
       </c>
@@ -13933,7 +13940,7 @@
         <v>1.01505253573439</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>8698</v>
       </c>
@@ -13980,7 +13987,7 @@
         <v>-2.15562033321873E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8704</v>
       </c>
@@ -14027,7 +14034,7 @@
         <v>0.63492317465580905</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>8707</v>
       </c>
@@ -14074,7 +14081,7 @@
         <v>-1.9496192820652001</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8714</v>
       </c>
@@ -14121,7 +14128,7 @@
         <v>1.14242661493169</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>8722</v>
       </c>
@@ -14168,7 +14175,7 @@
         <v>-0.12544610599262099</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>8748</v>
       </c>
@@ -14215,7 +14222,7 @@
         <v>0.83732091748267301</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>8749</v>
       </c>
@@ -14262,7 +14269,7 @@
         <v>0.97582763751267898</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>8750</v>
       </c>
@@ -14309,7 +14316,7 @@
         <v>0.92812091209310899</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>8779</v>
       </c>
@@ -14356,7 +14363,7 @@
         <v>0.93489772788963799</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>8785</v>
       </c>
@@ -14403,7 +14410,7 @@
         <v>1.8051614776236E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>8831</v>
       </c>
@@ -14450,7 +14457,7 @@
         <v>-0.52792955206149905</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>8833</v>
       </c>
@@ -14497,7 +14504,7 @@
         <v>0.46796972019606298</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>8848</v>
       </c>
@@ -14544,7 +14551,7 @@
         <v>0.88042997790552002</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>8853</v>
       </c>
@@ -14591,7 +14598,7 @@
         <v>0.185503766005707</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>8886</v>
       </c>
@@ -14638,7 +14645,7 @@
         <v>-0.353637789130618</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>8908</v>
       </c>
@@ -14685,7 +14692,7 @@
         <v>-0.92737626704378096</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>8915</v>
       </c>
@@ -14732,7 +14739,7 @@
         <v>0.64018427561394597</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>8916</v>
       </c>
@@ -14779,7 +14786,7 @@
         <v>1.1213312563419</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>8921</v>
       </c>
@@ -14826,7 +14833,7 @@
         <v>-1.53181853470525</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8934</v>
       </c>
@@ -14873,7 +14880,7 @@
         <v>-1.51238532883496</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>8953</v>
       </c>
@@ -14920,7 +14927,7 @@
         <v>1.3291449217008</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>8971</v>
       </c>
@@ -14967,7 +14974,7 @@
         <v>-0.469046637635959</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>8974</v>
       </c>
@@ -15014,7 +15021,7 @@
         <v>1.6153970899098</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>8978</v>
       </c>
@@ -15061,7 +15068,7 @@
         <v>1.88369494852007</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>8981</v>
       </c>
@@ -15108,7 +15115,7 @@
         <v>2.5371097095568298</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>9019</v>
       </c>
@@ -15155,7 +15162,7 @@
         <v>-0.921250590275277</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>9031</v>
       </c>
@@ -15202,7 +15209,7 @@
         <v>0.38503642527855497</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>9061</v>
       </c>
@@ -15249,7 +15256,7 @@
         <v>2.4452145852273399</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>9080</v>
       </c>
@@ -15296,7 +15303,7 @@
         <v>-0.745719319135286</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>9118</v>
       </c>
@@ -15343,7 +15350,7 @@
         <v>-0.92452673572358202</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>9120</v>
       </c>
@@ -15390,7 +15397,7 @@
         <v>0.69482799684526997</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>9130</v>
       </c>
@@ -15437,7 +15444,7 @@
         <v>-0.40455098375259502</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>9139</v>
       </c>
@@ -15484,7 +15491,7 @@
         <v>0.99607432269860696</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>9151</v>
       </c>
@@ -15531,7 +15538,7 @@
         <v>0.813181090276199</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>9153</v>
       </c>
@@ -15578,7 +15585,7 @@
         <v>0.87083021825017104</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>9159</v>
       </c>
@@ -15625,7 +15632,7 @@
         <v>0.10680410009157</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>9243</v>
       </c>
@@ -15672,7 +15679,7 @@
         <v>-0.69666750697762203</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>9254</v>
       </c>
@@ -15719,7 +15726,7 @@
         <v>0.111243863588429</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9293</v>
       </c>
@@ -15766,7 +15773,7 @@
         <v>-2.1488339648342998</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>9304</v>
       </c>
@@ -15813,7 +15820,7 @@
         <v>0.89718472202503496</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>9342</v>
       </c>
@@ -15860,7 +15867,7 @@
         <v>0.32558538188261199</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>9352</v>
       </c>
@@ -15907,7 +15914,7 @@
         <v>-0.29738051895444301</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>9366</v>
       </c>
@@ -15954,7 +15961,7 @@
         <v>-0.73634250571707804</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>9367</v>
       </c>
@@ -16001,7 +16008,7 @@
         <v>-0.94690980080947595</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9382</v>
       </c>
@@ -16048,7 +16055,7 @@
         <v>-5.4244453321903197E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>9389</v>
       </c>
@@ -16095,7 +16102,7 @@
         <v>0.26742449416415998</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>9393</v>
       </c>
@@ -16142,7 +16149,7 @@
         <v>0.70484984935941297</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>9409</v>
       </c>
@@ -16189,7 +16196,7 @@
         <v>2.4805245757982801</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>9414</v>
       </c>
@@ -16236,7 +16243,7 @@
         <v>1.0142294617058201</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>9417</v>
       </c>
@@ -16283,7 +16290,7 @@
         <v>-0.190484354183722</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>9421</v>
       </c>
@@ -16330,7 +16337,7 @@
         <v>0.63370777629419806</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>9430</v>
       </c>
@@ -16377,7 +16384,7 @@
         <v>0.27877925078840998</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>9437</v>
       </c>
@@ -16424,7 +16431,7 @@
         <v>1.34052231095052</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>9450</v>
       </c>
@@ -16471,7 +16478,7 @@
         <v>2.9683822273915799</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>9456</v>
       </c>
@@ -16518,7 +16525,7 @@
         <v>-0.113430897268397</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>9457</v>
       </c>
@@ -16565,7 +16572,7 @@
         <v>1.3056867942484101</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>9463</v>
       </c>
@@ -16612,7 +16619,7 @@
         <v>-0.18020384738481901</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>9469</v>
       </c>
@@ -16659,7 +16666,7 @@
         <v>-0.43202620675533698</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>9474</v>
       </c>
@@ -16706,7 +16713,7 @@
         <v>0.81404486580847402</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>9475</v>
       </c>
@@ -16753,7 +16760,7 @@
         <v>0.19679395302408101</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>9492</v>
       </c>
@@ -16800,7 +16807,7 @@
         <v>0.188407060553717</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>9494</v>
       </c>
@@ -16847,7 +16854,7 @@
         <v>1.6002573906870601</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>9497</v>
       </c>
@@ -16894,7 +16901,7 @@
         <v>2.5067437444707399</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>9499</v>
       </c>
@@ -16941,7 +16948,7 @@
         <v>0.52767468671710005</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>9521</v>
       </c>
@@ -16988,7 +16995,7 @@
         <v>7.46894119778337E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>9522</v>
       </c>
@@ -17035,7 +17042,7 @@
         <v>-1.7981265814638101</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9525</v>
       </c>
@@ -17082,7 +17089,7 @@
         <v>2.1618430440282701</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>9527</v>
       </c>
@@ -17129,7 +17136,7 @@
         <v>0.187239629537792</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>9530</v>
       </c>
@@ -17176,7 +17183,7 @@
         <v>-1.16819545062287</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>9534</v>
       </c>
@@ -17223,7 +17230,7 @@
         <v>-7.4396319238637001E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>9538</v>
       </c>
@@ -17270,7 +17277,7 @@
         <v>-0.70265894806590801</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>9542</v>
       </c>
@@ -17317,7 +17324,7 @@
         <v>0.78419223565781404</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>9546</v>
       </c>
@@ -17364,7 +17371,7 @@
         <v>-0.320425352241273</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>9549</v>
       </c>
@@ -17411,7 +17418,7 @@
         <v>0.550439230224675</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>9552</v>
       </c>
@@ -17458,7 +17465,7 @@
         <v>0.166080580484014</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>9553</v>
       </c>
@@ -17505,7 +17512,7 @@
         <v>-0.59964370571829795</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>9554</v>
       </c>
@@ -17552,7 +17559,7 @@
         <v>0.30677069785182498</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>9555</v>
       </c>
@@ -17599,7 +17606,7 @@
         <v>1.9113239591567099</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>9556</v>
       </c>
@@ -17646,7 +17653,7 @@
         <v>-0.56200714277181696</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>9558</v>
       </c>
@@ -17693,7 +17700,7 @@
         <v>-0.41543534209855398</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>9560</v>
       </c>
@@ -17740,7 +17747,7 @@
         <v>1.5611753307066101</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>9567</v>
       </c>
@@ -17787,7 +17794,7 @@
         <v>-1.16437364893006</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>9568</v>
       </c>
@@ -17834,7 +17841,7 @@
         <v>-1.1744315173684201</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>9569</v>
       </c>
@@ -17881,7 +17888,7 @@
         <v>-0.32508276381692103</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>9570</v>
       </c>
@@ -17928,7 +17935,7 @@
         <v>-2.2622617754442902</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>9572</v>
       </c>
@@ -17975,7 +17982,7 @@
         <v>-1.92523626479127</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>9574</v>
       </c>
@@ -18022,7 +18029,7 @@
         <v>-0.57708807036303</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>9576</v>
       </c>
@@ -18069,7 +18076,7 @@
         <v>2.4901439091936202</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>9577</v>
       </c>
@@ -18116,7 +18123,7 @@
         <v>-1.1306919750123401</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>9582</v>
       </c>
@@ -18163,7 +18170,7 @@
         <v>-0.37385264062358903</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>9584</v>
       </c>
@@ -18210,7 +18217,7 @@
         <v>0.225815756110406</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>9587</v>
       </c>
@@ -18257,7 +18264,7 @@
         <v>-1.10807002674739</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>9589</v>
       </c>
@@ -18304,7 +18311,7 @@
         <v>-1.5686386373149099E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>9591</v>
       </c>
@@ -18351,7 +18358,7 @@
         <v>-1.91616586233687</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>9604</v>
       </c>
@@ -18398,7 +18405,7 @@
         <v>0.17619420897028401</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>9605</v>
       </c>
@@ -18445,7 +18452,7 @@
         <v>-0.87131622614871196</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>9606</v>
       </c>
@@ -18492,7 +18499,7 @@
         <v>0.84270676316739301</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>9607</v>
       </c>
@@ -18539,7 +18546,7 @@
         <v>5.5799887811936302E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>9608</v>
       </c>
@@ -18586,7 +18593,7 @@
         <v>0.69972240647355499</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>9612</v>
       </c>
@@ -18633,7 +18640,7 @@
         <v>-1.3096857084084499</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>9619</v>
       </c>
@@ -18680,7 +18687,7 @@
         <v>5.5383895340684303E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>9620</v>
       </c>
@@ -18727,7 +18734,7 @@
         <v>-1.2074517318235201</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>9622</v>
       </c>
@@ -18774,7 +18781,7 @@
         <v>0.13428219068463301</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>9628</v>
       </c>
@@ -18821,7 +18828,7 @@
         <v>-0.58207531830163695</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>9631</v>
       </c>
@@ -18868,7 +18875,7 @@
         <v>-1.3341186924908699</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>9633</v>
       </c>
@@ -18915,7 +18922,7 @@
         <v>-0.52424402290627803</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>9642</v>
       </c>
@@ -18962,7 +18969,7 @@
         <v>0.45507652405009003</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>9646</v>
       </c>
@@ -19009,7 +19016,7 @@
         <v>-1.2233240820339</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>9647</v>
       </c>
@@ -19056,7 +19063,7 @@
         <v>-0.30076489046194299</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>9649</v>
       </c>
@@ -19103,7 +19110,7 @@
         <v>-0.47224575756018</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9651</v>
       </c>
@@ -19150,7 +19157,7 @@
         <v>5.3985867270283698E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>9652</v>
       </c>
@@ -19197,7 +19204,7 @@
         <v>2.1990882430107801</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>9686</v>
       </c>
@@ -19244,7 +19251,7 @@
         <v>3.0435045974364399E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>9687</v>
       </c>
@@ -19291,7 +19298,7 @@
         <v>1.5769047738608299</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>9690</v>
       </c>
@@ -19338,7 +19345,7 @@
         <v>2.23213250545089</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9692</v>
       </c>
@@ -19385,7 +19392,7 @@
         <v>-0.37836639370320202</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>9701</v>
       </c>
@@ -19432,7 +19439,7 @@
         <v>2.2417882463260201</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9705</v>
       </c>
@@ -19479,7 +19486,7 @@
         <v>-0.24530111642653599</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>9706</v>
       </c>
@@ -19526,7 +19533,7 @@
         <v>7.1962735419448696E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9711</v>
       </c>
@@ -19573,7 +19580,7 @@
         <v>0.91730479992261305</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>9713</v>
       </c>
@@ -19620,7 +19627,7 @@
         <v>1.0116282172058</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>9717</v>
       </c>
@@ -19667,7 +19674,7 @@
         <v>3.0162989179702002</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>9719</v>
       </c>
@@ -19714,7 +19721,7 @@
         <v>-0.942241500790998</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>9725</v>
       </c>
@@ -19761,7 +19768,7 @@
         <v>0.73568780736645201</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>9729</v>
       </c>
@@ -19808,7 +19815,7 @@
         <v>1.56581147889964</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>9733</v>
       </c>
@@ -19855,7 +19862,7 @@
         <v>0.162498704248695</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>9735</v>
       </c>
@@ -19902,7 +19909,7 @@
         <v>-0.224147182509149</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>9736</v>
       </c>
@@ -19949,7 +19956,7 @@
         <v>-5.4765901122483203E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>9738</v>
       </c>
@@ -19996,7 +20003,7 @@
         <v>0.875834282481046</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>9748</v>
       </c>
@@ -20043,7 +20050,7 @@
         <v>0.76141647574113502</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>9749</v>
       </c>
@@ -20090,7 +20097,7 @@
         <v>1.9602049158825301</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>9750</v>
       </c>
@@ -20137,7 +20144,7 @@
         <v>-2.4952171177900699</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>9755</v>
       </c>
@@ -20184,7 +20191,7 @@
         <v>0.25170904451142301</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>9756</v>
       </c>
@@ -20231,7 +20238,7 @@
         <v>-6.5784384676099402E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>9760</v>
       </c>
@@ -20278,7 +20285,7 @@
         <v>0.43568433306167698</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>9761</v>
       </c>
@@ -20325,7 +20332,7 @@
         <v>2.4042560075865</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>9770</v>
       </c>
@@ -20372,7 +20379,7 @@
         <v>2.2102437619375599</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9776</v>
       </c>
@@ -20419,7 +20426,7 @@
         <v>1.24911203817064</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>9779</v>
       </c>
@@ -20466,7 +20473,7 @@
         <v>-1.9291097397258301</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>9789</v>
       </c>
@@ -20513,7 +20520,7 @@
         <v>-0.48528301198537899</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9792</v>
       </c>
@@ -20560,7 +20567,7 @@
         <v>2.81894831957226</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>9794</v>
       </c>
@@ -20607,7 +20614,7 @@
         <v>-0.86416244874330606</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>9796</v>
       </c>
@@ -20654,7 +20661,7 @@
         <v>0.31441492214054301</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>9797</v>
       </c>
@@ -20701,7 +20708,7 @@
         <v>2.38313220476266</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>9801</v>
       </c>
@@ -20748,7 +20755,7 @@
         <v>2.8544627738487098</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>9807</v>
       </c>
@@ -20795,7 +20802,7 @@
         <v>-0.70817424280641295</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9808</v>
       </c>
@@ -20842,7 +20849,7 @@
         <v>1.0853770059130701</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>9809</v>
       </c>
@@ -20889,7 +20896,7 @@
         <v>0.49573600543290902</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>9810</v>
       </c>
@@ -20936,7 +20943,7 @@
         <v>-0.81069599218462096</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9815</v>
       </c>
@@ -20983,7 +20990,7 @@
         <v>-2.1561646089346298</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>9818</v>
       </c>
@@ -21030,7 +21037,7 @@
         <v>-1.25791039206398</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>9822</v>
       </c>
@@ -21077,7 +21084,7 @@
         <v>-0.37233762457631597</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9825</v>
       </c>
@@ -21124,7 +21131,7 @@
         <v>-8.5107487233207296E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9826</v>
       </c>
@@ -21171,7 +21178,7 @@
         <v>-1.4125803775036101</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>9829</v>
       </c>
@@ -21218,7 +21225,7 @@
         <v>-2.1979208124315202</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9847</v>
       </c>
@@ -21265,7 +21272,7 @@
         <v>-1.41150502891658</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>9848</v>
       </c>
@@ -21312,7 +21319,7 @@
         <v>-0.105735916993903</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>9859</v>
       </c>
@@ -21359,7 +21366,7 @@
         <v>0.93685348297395499</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>9866</v>
       </c>
@@ -21406,7 +21413,7 @@
         <v>0.272130161685254</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>9869</v>
       </c>
@@ -21453,7 +21460,7 @@
         <v>0.51772681690765399</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>9874</v>
       </c>
@@ -21500,7 +21507,7 @@
         <v>0.83723822452765795</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>9877</v>
       </c>
@@ -21547,7 +21554,7 @@
         <v>0.59316658709922698</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>9883</v>
       </c>
@@ -21594,7 +21601,7 @@
         <v>-0.800914486368699</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>9885</v>
       </c>
@@ -21641,7 +21648,7 @@
         <v>2.2450283071970198</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>9886</v>
       </c>
@@ -21688,7 +21695,7 @@
         <v>2.6052603794759999</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>9888</v>
       </c>
@@ -21735,7 +21742,7 @@
         <v>-0.39130749683791399</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>9893</v>
       </c>
@@ -21782,7 +21789,7 @@
         <v>-1.45141669640216</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>9894</v>
       </c>
@@ -21829,7 +21836,7 @@
         <v>-0.748723758127539</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>9905</v>
       </c>
@@ -21876,7 +21883,7 @@
         <v>-0.841335804334298</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>9909</v>
       </c>
@@ -21923,7 +21930,7 @@
         <v>1.8881240083941899</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>9913</v>
       </c>
@@ -21970,7 +21977,7 @@
         <v>0.85757237869630898</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>9914</v>
       </c>
@@ -22017,7 +22024,7 @@
         <v>1.82374594002889</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>9915</v>
       </c>
@@ -22064,7 +22071,7 @@
         <v>2.0046657625081798</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>9916</v>
       </c>
@@ -22111,7 +22118,7 @@
         <v>2.1961232855508901</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>9918</v>
       </c>
@@ -22158,7 +22165,7 @@
         <v>0.61369945042645102</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>9969</v>
       </c>
@@ -22205,7 +22212,7 @@
         <v>3.1165004694602798</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>10038</v>
       </c>
@@ -22252,7 +22259,7 @@
         <v>3.0146729912183998</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>10060</v>
       </c>
@@ -22299,7 +22306,7 @@
         <v>-0.59559472686436199</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>10100</v>
       </c>
@@ -22346,7 +22353,7 @@
         <v>0.72191706142927503</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>10111</v>
       </c>
@@ -22393,7 +22400,7 @@
         <v>-0.83129706399861403</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>10113</v>
       </c>
@@ -22440,7 +22447,7 @@
         <v>-1.75125932492575</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>10151</v>
       </c>
@@ -22487,7 +22494,7 @@
         <v>-0.59928198452620696</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>10157</v>
       </c>
@@ -22534,7 +22541,7 @@
         <v>1.7044718517656601</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>10161</v>
       </c>
@@ -22581,7 +22588,7 @@
         <v>-1.2923811211977301</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>10165</v>
       </c>
@@ -22628,7 +22635,7 @@
         <v>1.3961976527968101</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>10169</v>
       </c>
@@ -22675,7 +22682,7 @@
         <v>0.73830319052906801</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>10223</v>
       </c>
@@ -22722,7 +22729,7 @@
         <v>1.77000622692068</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>10237</v>
       </c>
@@ -22769,7 +22776,7 @@
         <v>0.208674335851147</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>10296</v>
       </c>
@@ -22816,7 +22823,7 @@
         <v>0.42404545201211302</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>10298</v>
       </c>
@@ -22863,7 +22870,7 @@
         <v>-0.176261182242198</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>10306</v>
       </c>
@@ -22910,7 +22917,7 @@
         <v>-2.3154364370918601</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>10325</v>
       </c>
@@ -22957,7 +22964,7 @@
         <v>0.48507355230523802</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10330</v>
       </c>
@@ -23004,7 +23011,7 @@
         <v>0.18769553513058801</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>10353</v>
       </c>
@@ -23051,7 +23058,7 @@
         <v>0.68468541839124797</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>10354</v>
       </c>
@@ -23098,7 +23105,7 @@
         <v>-0.354692284682458</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>10359</v>
       </c>
@@ -23145,7 +23152,7 @@
         <v>2.1406785013885901</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>10421</v>
       </c>
@@ -23192,7 +23199,7 @@
         <v>-0.46904581910209903</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>10436</v>
       </c>
@@ -23239,7 +23246,7 @@
         <v>-0.53019923937090896</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>10437</v>
       </c>
@@ -23286,7 +23293,7 @@
         <v>0.383068149906236</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>10451</v>
       </c>
@@ -23333,7 +23340,7 @@
         <v>1.66548588300987</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>10456</v>
       </c>
@@ -23380,7 +23387,7 @@
         <v>8.8432639843952901E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>10464</v>
       </c>
@@ -23427,7 +23434,7 @@
         <v>2.68648133623768</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>10471</v>
       </c>
@@ -23474,7 +23481,7 @@
         <v>2.19620722066007</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>10475</v>
       </c>
@@ -23521,7 +23528,7 @@
         <v>0.59910489585531801</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>10476</v>
       </c>
@@ -23568,7 +23575,7 @@
         <v>0.75605939841250303</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>10493</v>
       </c>
@@ -23615,7 +23622,7 @@
         <v>-0.56851169700862103</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>10499</v>
       </c>
@@ -23662,7 +23669,7 @@
         <v>-1.0745441280292001</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10533</v>
       </c>
@@ -23709,7 +23716,7 @@
         <v>1.5267859961119901</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>10543</v>
       </c>
@@ -23756,7 +23763,7 @@
         <v>-1.09004388950464</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>10546</v>
       </c>
@@ -23803,7 +23810,7 @@
         <v>1.33954019606749</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>10554</v>
       </c>
@@ -23850,7 +23857,7 @@
         <v>1.25603647865891</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>10578</v>
       </c>
@@ -23897,7 +23904,7 @@
         <v>0.58802639658901001</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>10590</v>
       </c>
@@ -23944,7 +23951,7 @@
         <v>-1.2637356620625799</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>10600</v>
       </c>
@@ -23991,7 +23998,7 @@
         <v>-2.6561718369657799</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>10609</v>
       </c>
@@ -24038,7 +24045,7 @@
         <v>0.14071597950147</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>10613</v>
       </c>
@@ -24085,7 +24092,7 @@
         <v>2.8077389949159501</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>10639</v>
       </c>
@@ -24132,7 +24139,7 @@
         <v>-1.46177346358322E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>10641</v>
       </c>
@@ -24179,7 +24186,7 @@
         <v>-3.33276363777168E-3</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>10655</v>
       </c>
@@ -24226,7 +24233,7 @@
         <v>-1.6991968300826901</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>10692</v>
       </c>
@@ -24273,7 +24280,7 @@
         <v>-0.36706243454987802</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>10695</v>
       </c>
@@ -24320,7 +24327,7 @@
         <v>1.4207586503326699</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>10702</v>
       </c>
@@ -24367,7 +24374,7 @@
         <v>2.3654150929940099E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10710</v>
       </c>
@@ -24414,7 +24421,7 @@
         <v>-0.45889784997140698</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10712</v>
       </c>
@@ -24461,7 +24468,7 @@
         <v>-0.13356570504766299</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>10721</v>
       </c>
@@ -24508,7 +24515,7 @@
         <v>0.82355934118741503</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>10744</v>
       </c>
@@ -24555,7 +24562,7 @@
         <v>-0.46027343874274801</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>10755</v>
       </c>
@@ -24602,7 +24609,7 @@
         <v>2.4744306018926299</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>10756</v>
       </c>
@@ -24649,7 +24656,7 @@
         <v>1.3875519272258301</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>10777</v>
       </c>
@@ -24696,7 +24703,7 @@
         <v>-0.877441196368002</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>10784</v>
       </c>
@@ -24743,7 +24750,7 @@
         <v>0.76487495547076001</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>10785</v>
       </c>
@@ -24790,7 +24797,7 @@
         <v>-0.64439271658095798</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>10795</v>
       </c>
@@ -24837,7 +24844,7 @@
         <v>-0.31863831245443403</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>10807</v>
       </c>
@@ -24884,7 +24891,7 @@
         <v>0.46072207471285598</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>10821</v>
       </c>
@@ -24931,7 +24938,7 @@
         <v>-0.161100058174454</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>10829</v>
       </c>
@@ -24978,7 +24985,7 @@
         <v>0.84732222405785795</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>10844</v>
       </c>
@@ -25025,7 +25032,7 @@
         <v>-1.4534946018487001</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>10851</v>
       </c>
@@ -25072,7 +25079,7 @@
         <v>2.3129450707931398</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>10920</v>
       </c>
@@ -25119,7 +25126,7 @@
         <v>0.34080830232078702</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>10950</v>
       </c>
@@ -25166,7 +25173,7 @@
         <v>-1.85910545700926</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>10965</v>
       </c>
@@ -25213,7 +25220,7 @@
         <v>0.57825690965668597</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>10990</v>
       </c>
@@ -25260,7 +25267,7 @@
         <v>0.51674892856615495</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>11006</v>
       </c>
@@ -25307,7 +25314,7 @@
         <v>-0.54218020854206705</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>11127</v>
       </c>
@@ -25354,7 +25361,7 @@
         <v>2.38613761324368</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>11165</v>
       </c>
@@ -25401,7 +25408,7 @@
         <v>2.67440530203777</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>11181</v>
       </c>
@@ -25448,7 +25455,7 @@
         <v>-1.0470800769177599</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>11212</v>
       </c>
@@ -25495,7 +25502,7 @@
         <v>9.5952476082805702E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>11215</v>
       </c>
@@ -25542,7 +25549,7 @@
         <v>-0.106639976058908</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>11223</v>
       </c>
@@ -25589,7 +25596,7 @@
         <v>2.4508149067851601</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>11310</v>
       </c>
@@ -25636,7 +25643,7 @@
         <v>0.89035687753102999</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>11316</v>
       </c>
@@ -25683,7 +25690,7 @@
         <v>-2.1479514948082601</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>11354</v>
       </c>
@@ -25730,7 +25737,7 @@
         <v>2.0342245657153</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>11397</v>
       </c>
@@ -25777,7 +25784,7 @@
         <v>5.1779880325763201E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>11414</v>
       </c>
@@ -25824,7 +25831,7 @@
         <v>1.34966461755469</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>11430</v>
       </c>
@@ -25871,7 +25878,7 @@
         <v>0.73893420463945503</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>11443</v>
       </c>
@@ -25918,7 +25925,7 @@
         <v>-0.92668342281009697</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>11455</v>
       </c>
@@ -25965,7 +25972,7 @@
         <v>-0.86305266581011797</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>11456</v>
       </c>
@@ -26012,7 +26019,7 @@
         <v>-0.179788970170109</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>11459</v>
       </c>
@@ -26059,7 +26066,7 @@
         <v>0.31315652259655002</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>11461</v>
       </c>
@@ -26106,7 +26113,7 @@
         <v>-0.107256226094715</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>11462</v>
       </c>
@@ -26153,7 +26160,7 @@
         <v>-1.7242360875934699</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>11463</v>
       </c>
@@ -26200,7 +26207,7 @@
         <v>-2.1412458031413899</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>11464</v>
       </c>
@@ -26247,7 +26254,7 @@
         <v>-0.15796397949292601</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>11466</v>
       </c>
@@ -26294,7 +26301,7 @@
         <v>2.4134770035457498</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>11467</v>
       </c>
@@ -26341,7 +26348,7 @@
         <v>-0.25160678917413798</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>11517</v>
       </c>
@@ -26388,7 +26395,7 @@
         <v>0.117189767540488</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>11525</v>
       </c>
@@ -26435,7 +26442,7 @@
         <v>-0.53593237620718503</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>11526</v>
       </c>
@@ -26482,7 +26489,7 @@
         <v>0.15785199516352599</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>11570</v>
       </c>
@@ -26529,7 +26536,7 @@
         <v>-0.15834512970225501</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>11573</v>
       </c>
@@ -26576,7 +26583,7 @@
         <v>-0.36778467504760698</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>11577</v>
       </c>
@@ -26623,7 +26630,7 @@
         <v>-3.8545952335709698E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>11591</v>
       </c>
@@ -26670,7 +26677,7 @@
         <v>-1.9274116884391499</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>11603</v>
       </c>
@@ -26717,7 +26724,7 @@
         <v>0.32702871056150401</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>11611</v>
       </c>
@@ -26764,7 +26771,7 @@
         <v>1.5253760647922401</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>11934</v>
       </c>
@@ -26811,7 +26818,7 @@
         <v>-0.51193834899919799</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>11982</v>
       </c>
@@ -26858,7 +26865,7 @@
         <v>2.36090937563739</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>12037</v>
       </c>
@@ -26905,7 +26912,7 @@
         <v>3.5824659734356799E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>12121</v>
       </c>
@@ -26952,7 +26959,7 @@
         <v>-5.0546482719039998E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>12220</v>
       </c>
@@ -26999,7 +27006,7 @@
         <v>-0.498420321288844</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>12678</v>
       </c>
@@ -27046,7 +27053,7 @@
         <v>-0.46897547977406501</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>13236</v>
       </c>
@@ -27093,7 +27100,7 @@
         <v>-0.33980104675991402</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>14235</v>
       </c>
@@ -27140,7 +27147,7 @@
         <v>1.08801891903979</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>14296</v>
       </c>
@@ -27187,7 +27194,7 @@
         <v>2.2856040474538601</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>14348</v>
       </c>
@@ -27234,7 +27241,7 @@
         <v>-1.2666475019532499</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>14491</v>
       </c>
@@ -27281,7 +27288,7 @@
         <v>-1.29564295502264</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>14560</v>
       </c>
@@ -27328,7 +27335,7 @@
         <v>-0.65909635199205696</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>14735</v>
       </c>
@@ -27375,7 +27382,7 @@
         <v>0.72078563773903404</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>15229</v>
       </c>
@@ -27422,7 +27429,7 @@
         <v>-0.79508621602922103</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>15554</v>
       </c>
@@ -27469,7 +27476,7 @@
         <v>0.47497624044909098</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>15562</v>
       </c>
@@ -27516,7 +27523,7 @@
         <v>0.29140912281180498</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>15609</v>
       </c>
@@ -27563,7 +27570,7 @@
         <v>2.6766102031322898</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>15635</v>
       </c>
@@ -27610,7 +27617,7 @@
         <v>0.62433338639837599</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>15649</v>
       </c>
@@ -27657,7 +27664,7 @@
         <v>0.66557543969467703</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>15652</v>
       </c>
@@ -27704,7 +27711,7 @@
         <v>-1.2051173450945301</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>15660</v>
       </c>
@@ -27751,7 +27758,7 @@
         <v>-2.05593329349878</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>15665</v>
       </c>
@@ -27798,7 +27805,7 @@
         <v>-7.3472495768841406E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>15673</v>
       </c>
@@ -27845,7 +27852,7 @@
         <v>-1.4349841710778199</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>15675</v>
       </c>
@@ -27892,7 +27899,7 @@
         <v>0.21714379742206599</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>15677</v>
       </c>
@@ -27939,7 +27946,7 @@
         <v>-1.5189548383233</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>15679</v>
       </c>
@@ -27986,7 +27993,7 @@
         <v>0.63566874029568898</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>15680</v>
       </c>
@@ -28033,7 +28040,7 @@
         <v>-1.9269171921950199</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>15687</v>
       </c>
@@ -28080,7 +28087,7 @@
         <v>-1.63486795779392</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>15688</v>
       </c>
@@ -28127,7 +28134,7 @@
         <v>3.3854848464968699</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>15690</v>
       </c>
@@ -28174,7 +28181,7 @@
         <v>0.93700864139504503</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>15693</v>
       </c>
@@ -28221,7 +28228,7 @@
         <v>2.31017882831555</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>15694</v>
       </c>
@@ -28268,7 +28275,7 @@
         <v>-0.628194418134701</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>15726</v>
       </c>
@@ -28315,7 +28322,7 @@
         <v>-0.48007140556848099</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>15771</v>
       </c>
@@ -28362,7 +28369,7 @@
         <v>-1.6759807003679299</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>15791</v>
       </c>
@@ -28409,7 +28416,7 @@
         <v>0.57004030999279598</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>15804</v>
       </c>
@@ -28456,7 +28463,7 @@
         <v>-1.3447514329610599</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>15807</v>
       </c>
@@ -28503,7 +28510,7 @@
         <v>-1.94422182353303</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>15808</v>
       </c>
@@ -28550,7 +28557,7 @@
         <v>2.1858528317940298</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>15812</v>
       </c>
@@ -28597,7 +28604,7 @@
         <v>-0.27321865716668797</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>15819</v>
       </c>
@@ -28644,7 +28651,7 @@
         <v>-0.81057436806357197</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>15821</v>
       </c>
@@ -28691,7 +28698,7 @@
         <v>-2.0416949912133902</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>15822</v>
       </c>
@@ -28738,7 +28745,7 @@
         <v>-9.2676287039303792E-3</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>15888</v>
       </c>
@@ -28785,7 +28792,7 @@
         <v>1.0856358886027699</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>15895</v>
       </c>
@@ -28832,7 +28839,7 @@
         <v>-0.113466491467227</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>15962</v>
       </c>
@@ -28879,7 +28886,7 @@
         <v>-0.59034967795958104</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>16092</v>
       </c>
@@ -28926,7 +28933,7 @@
         <v>1.8843319595058901</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>16093</v>
       </c>
@@ -28973,7 +28980,7 @@
         <v>2.9935416504393002</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>16118</v>
       </c>
@@ -29020,7 +29027,7 @@
         <v>1.5569853620157901</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>16149</v>
       </c>
@@ -29067,7 +29074,7 @@
         <v>0.59169929743329097</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>16151</v>
       </c>
@@ -29114,7 +29121,7 @@
         <v>0.13577783383401201</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>16153</v>
       </c>
@@ -29161,7 +29168,7 @@
         <v>-0.95819297825028305</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>16154</v>
       </c>
@@ -29208,7 +29215,7 @@
         <v>2.09480608187644</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>16156</v>
       </c>
@@ -29255,7 +29262,7 @@
         <v>-0.50091245131393702</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>16208</v>
       </c>
@@ -29302,7 +29309,7 @@
         <v>-0.25702459590966498</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>16209</v>
       </c>
@@ -29349,7 +29356,7 @@
         <v>-1.63707646055899</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>16211</v>
       </c>
@@ -29396,7 +29403,7 @@
         <v>8.5464532068473403E-3</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>16214</v>
       </c>
@@ -29443,7 +29450,7 @@
         <v>0.51383245770215102</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>16271</v>
       </c>
@@ -29490,7 +29497,7 @@
         <v>-0.55652506924696798</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>16278</v>
       </c>
@@ -29537,7 +29544,7 @@
         <v>0.47013785258621998</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>16283</v>
       </c>
@@ -29584,7 +29591,7 @@
         <v>2.75725401448469</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>16285</v>
       </c>
@@ -29631,7 +29638,7 @@
         <v>1.46686241133332</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>16286</v>
       </c>
@@ -29678,7 +29685,7 @@
         <v>2.5281826597157502</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>16377</v>
       </c>
@@ -29725,7 +29732,7 @@
         <v>-0.34838872082047001</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>16395</v>
       </c>
@@ -29772,7 +29779,7 @@
         <v>-1.2804381443747901</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>16398</v>
       </c>
@@ -29819,7 +29826,7 @@
         <v>3.0011028791513801</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>16399</v>
       </c>
@@ -29866,7 +29873,7 @@
         <v>1.3460888118609</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>16406</v>
       </c>
@@ -29913,7 +29920,7 @@
         <v>0.26500746920958002</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>16414</v>
       </c>
@@ -29960,7 +29967,7 @@
         <v>0.52719283726177701</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>16494</v>
       </c>
@@ -30007,7 +30014,7 @@
         <v>-1.34738961941624</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>16545</v>
       </c>
@@ -30054,7 +30061,7 @@
         <v>2.1188750962288498</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>16549</v>
       </c>
@@ -30101,7 +30108,7 @@
         <v>2.0757876608946901</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>16566</v>
       </c>
@@ -30148,7 +30155,7 @@
         <v>2.6432502465202501</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>16608</v>
       </c>
@@ -30195,7 +30202,7 @@
         <v>2.4677279024256902</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>16627</v>
       </c>
@@ -30242,7 +30249,7 @@
         <v>0.52638458972721902</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>16629</v>
       </c>
@@ -30289,7 +30296,7 @@
         <v>2.8735159848216201</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>16632</v>
       </c>
@@ -30336,7 +30343,7 @@
         <v>-2.2813227338642301</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>16637</v>
       </c>
@@ -30383,7 +30390,7 @@
         <v>1.84678739480444</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>16645</v>
       </c>
@@ -30430,7 +30437,7 @@
         <v>-1.2750086531400799</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>16767</v>
       </c>
@@ -30477,7 +30484,7 @@
         <v>1.57275648144233</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>16840</v>
       </c>
@@ -30524,7 +30531,7 @@
         <v>0.92274208999206397</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>16896</v>
       </c>
@@ -30571,7 +30578,7 @@
         <v>1.4457868477278</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>17066</v>
       </c>
@@ -30618,7 +30625,7 @@
         <v>0.56450571243383196</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>17089</v>
       </c>
@@ -30665,7 +30672,7 @@
         <v>0.94312761385191801</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>17109</v>
       </c>
@@ -30712,7 +30719,7 @@
         <v>2.9950782872540498</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>17165</v>
       </c>
@@ -30759,7 +30766,7 @@
         <v>2.8892172363667199</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>17461</v>
       </c>
@@ -30806,7 +30813,7 @@
         <v>2.1069787504883499</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>17529</v>
       </c>
@@ -30853,7 +30860,7 @@
         <v>-0.47036660251430201</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>17584</v>
       </c>
@@ -30900,7 +30907,7 @@
         <v>-0.83160531549084404</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>17717</v>
       </c>
@@ -30947,7 +30954,7 @@
         <v>-0.88832734309051697</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>17721</v>
       </c>
@@ -30994,7 +31001,7 @@
         <v>-0.68060225681402697</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>17748</v>
       </c>
@@ -31041,7 +31048,7 @@
         <v>-1.55291280363495</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>17892</v>
       </c>
@@ -31088,7 +31095,7 @@
         <v>0.370572997213232</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>17972</v>
       </c>
@@ -31135,7 +31142,7 @@
         <v>0.56653775815416996</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>18146</v>
       </c>
@@ -31182,7 +31189,7 @@
         <v>1.4720318917922599</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>18247</v>
       </c>
@@ -31229,7 +31236,7 @@
         <v>1.18145681656625</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>18315</v>
       </c>
@@ -31276,7 +31283,7 @@
         <v>-0.393161310893613</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>18378</v>
       </c>
@@ -31323,7 +31330,7 @@
         <v>1.76767565184979</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>18420</v>
       </c>
@@ -31370,7 +31377,7 @@
         <v>-0.141835862696223</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>18474</v>
       </c>
@@ -31417,7 +31424,7 @@
         <v>-0.19831032832734699</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>18589</v>
       </c>
@@ -31464,7 +31471,7 @@
         <v>-5.9200802863923901E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>18781</v>
       </c>
@@ -31511,7 +31518,7 @@
         <v>0.40055414456140898</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>18937</v>
       </c>
@@ -31558,7 +31565,7 @@
         <v>0.10075339653203901</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>19331</v>
       </c>
@@ -31605,7 +31612,7 @@
         <v>2.3265616775062701</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>19447</v>
       </c>
@@ -31652,7 +31659,7 @@
         <v>0.17788236367650301</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>19467</v>
       </c>
@@ -31699,7 +31706,7 @@
         <v>0.41601230690018398</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>19727</v>
       </c>
@@ -31746,7 +31753,7 @@
         <v>-0.48428099274269398</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>19770</v>
       </c>
@@ -31793,7 +31800,7 @@
         <v>-1.20969096726805</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>19785</v>
       </c>
@@ -31840,7 +31847,7 @@
         <v>-2.1207302600214901</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>19835</v>
       </c>
@@ -31887,7 +31894,7 @@
         <v>0.77398219127435397</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>19859</v>
       </c>
@@ -31934,7 +31941,7 @@
         <v>-1.3419292362062301</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>19988</v>
       </c>
@@ -31981,7 +31988,7 @@
         <v>1.5725148394831701</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>20214</v>
       </c>
@@ -32028,7 +32035,7 @@
         <v>-0.61528015501966205</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>20243</v>
       </c>
@@ -32075,7 +32082,7 @@
         <v>0.16098166599413999</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>20286</v>
       </c>
@@ -32122,7 +32129,7 @@
         <v>2.2538509584824502</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>20313</v>
       </c>
@@ -32169,7 +32176,7 @@
         <v>1.8856961173579001</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>20743</v>
       </c>
@@ -32216,7 +32223,7 @@
         <v>0.158471235776698</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>20795</v>
       </c>
@@ -32263,7 +32270,7 @@
         <v>0.49019116839420102</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>20864</v>
       </c>
@@ -32310,7 +32317,7 @@
         <v>1.32678426846273</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>20907</v>
       </c>
@@ -32357,7 +32364,7 @@
         <v>-0.93475551234017296</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>21694</v>
       </c>
@@ -32404,7 +32411,7 @@
         <v>-1.07833073739331</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>21825</v>
       </c>
@@ -32451,7 +32458,7 @@
         <v>1.2574466155052699</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>21930</v>
       </c>
@@ -32498,7 +32505,7 @@
         <v>6.6201587249683294E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>22011</v>
       </c>
@@ -32545,7 +32552,7 @@
         <v>2.9693737223597299</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>22154</v>
       </c>
@@ -32592,7 +32599,7 @@
         <v>1.3780288816303301</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>22240</v>
       </c>
@@ -32639,7 +32646,7 @@
         <v>2.4914219722134798</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>22754</v>
       </c>
@@ -32686,7 +32693,7 @@
         <v>-0.54580798528283903</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>22872</v>
       </c>
@@ -32733,7 +32740,7 @@
         <v>-1.2830349615486401</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>22941</v>
       </c>
@@ -32780,7 +32787,7 @@
         <v>1.71024089359499</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>22942</v>
       </c>
@@ -32827,7 +32834,7 @@
         <v>-0.91604750564052295</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>22984</v>
       </c>
@@ -32874,7 +32881,7 @@
         <v>-1.0471349213163299</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>23216</v>
       </c>
@@ -32921,7 +32928,7 @@
         <v>-6.8765337869153398E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>23260</v>
       </c>
@@ -32968,7 +32975,7 @@
         <v>1.5923260826027601</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>23314</v>
       </c>
@@ -33015,7 +33022,7 @@
         <v>3.1581205368530401</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>23360</v>
       </c>
@@ -33062,7 +33069,7 @@
         <v>2.1843607353199301</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>23435</v>
       </c>
@@ -33109,7 +33116,7 @@
         <v>1.4290196081438</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>23592</v>
       </c>
@@ -33156,7 +33163,7 @@
         <v>-1.54300762208022</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>23786</v>
       </c>
@@ -33203,7 +33210,7 @@
         <v>7.60941554341176E-2</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>23864</v>
       </c>
@@ -33250,7 +33257,7 @@
         <v>0.45555733982819202</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>23892</v>
       </c>
@@ -33297,7 +33304,7 @@
         <v>0.84535964839357802</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>23899</v>
       </c>
@@ -33344,7 +33351,7 @@
         <v>0.94527400635258696</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>24141</v>
       </c>
@@ -33391,7 +33398,7 @@
         <v>1.7312212965129301</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>24241</v>
       </c>
@@ -33438,7 +33445,7 @@
         <v>0.38495696990376099</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>24280</v>
       </c>
@@ -33485,7 +33492,7 @@
         <v>-1.5601833503153799</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>24313</v>
       </c>
@@ -33532,7 +33539,7 @@
         <v>0.84629149868139997</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>24387</v>
       </c>
@@ -33579,7 +33586,7 @@
         <v>8.2272268199482801E-2</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>24401</v>
       </c>
@@ -33626,7 +33633,7 @@
         <v>0.51199880014547505</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>24410</v>
       </c>
@@ -33673,7 +33680,7 @@
         <v>2.7623394595811099</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>24451</v>
       </c>
@@ -33720,7 +33727,7 @@
         <v>1.60462661644005</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>24521</v>
       </c>
@@ -33767,7 +33774,7 @@
         <v>0.725356578826444</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>25009</v>
       </c>
@@ -33814,7 +33821,7 @@
         <v>1.4461574916331901</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>25104</v>
       </c>
@@ -33861,7 +33868,7 @@
         <v>0.96664157360717595</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>25192</v>
       </c>
@@ -33908,7 +33915,7 @@
         <v>-1.3618791743880601</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>25317</v>
       </c>
@@ -33955,7 +33962,7 @@
         <v>1.75102537938962</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>25502</v>
       </c>
@@ -34002,7 +34009,7 @@
         <v>-0.828224960506039</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>25537</v>
       </c>
@@ -34049,7 +34056,7 @@
         <v>-1.5594647049782799</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>25754</v>
       </c>
@@ -34096,7 +34103,7 @@
         <v>2.81048694944394</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>25918</v>
       </c>
@@ -34143,7 +34150,7 @@
         <v>0.60374643487567003</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>25975</v>
       </c>
@@ -34190,7 +34197,7 @@
         <v>2.2357489520551499</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>26013</v>
       </c>
@@ -34237,7 +34244,7 @@
         <v>2.67407173160717</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>26073</v>
       </c>
@@ -34284,7 +34291,7 @@
         <v>0.996676516142187</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>26137</v>
       </c>
@@ -34331,7 +34338,7 @@
         <v>0.127603482020718</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>26251</v>
       </c>
@@ -34378,7 +34385,7 @@
         <v>2.2829837024710602</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>26367</v>
       </c>
@@ -34425,7 +34432,7 @@
         <v>0.35926330230722803</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>26401</v>
       </c>
@@ -34472,7 +34479,7 @@
         <v>-1.6538135298482901</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>26439</v>
       </c>
@@ -34519,7 +34526,7 @@
         <v>1.09315886103809</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>26479</v>
       </c>
@@ -34566,7 +34573,7 @@
         <v>0.68433649221776705</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>26497</v>
       </c>
@@ -34613,7 +34620,7 @@
         <v>1.57271365475834</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>26523</v>
       </c>
@@ -34660,7 +34667,7 @@
         <v>-1.9511394447119099</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>26810</v>
       </c>
@@ -34707,7 +34714,7 @@
         <v>4.5594186147983898E-2</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>26873</v>
       </c>
@@ -34754,7 +34761,7 @@
         <v>-5.8429297237113202E-2</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>26950</v>
       </c>
@@ -34801,7 +34808,7 @@
         <v>0.84605667861052603</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>27359</v>
       </c>
@@ -34848,7 +34855,7 @@
         <v>-0.89481723292270698</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>27386</v>
       </c>
@@ -34895,7 +34902,7 @@
         <v>2.3199324143272002</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>27453</v>
       </c>
@@ -34942,7 +34949,7 @@
         <v>-0.24897903489752099</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>27567</v>
       </c>
@@ -34989,7 +34996,7 @@
         <v>6.5472460183405995E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>27579</v>
       </c>
@@ -35036,7 +35043,7 @@
         <v>-0.60520731919449999</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>27607</v>
       </c>
@@ -35083,7 +35090,7 @@
         <v>1.1505585162060299</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>27758</v>
       </c>
@@ -35130,7 +35137,7 @@
         <v>-0.55307844021206798</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>27859</v>
       </c>
@@ -35177,7 +35184,7 @@
         <v>1.4832434929625</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>27887</v>
       </c>
@@ -35224,7 +35231,7 @@
         <v>0.67452353853151503</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>28021</v>
       </c>
@@ -35271,7 +35278,7 @@
         <v>-2.3357509309684898</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>28068</v>
       </c>
@@ -35318,7 +35325,7 @@
         <v>1.65903213238738</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>28096</v>
       </c>
@@ -35365,7 +35372,7 @@
         <v>-0.65069991774393399</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>28182</v>
       </c>
@@ -35412,7 +35419,7 @@
         <v>0.153517554654409</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>28342</v>
       </c>
@@ -35459,7 +35466,7 @@
         <v>2.5431146732879299</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>28438</v>
       </c>
@@ -35506,7 +35513,7 @@
         <v>-1.80764966725276</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>28486</v>
       </c>
@@ -35553,7 +35560,7 @@
         <v>-1.4159048714213101</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>28500</v>
       </c>
@@ -35600,7 +35607,7 @@
         <v>-1.7039301298421199</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>28638</v>
       </c>
@@ -35647,7 +35654,7 @@
         <v>3.5931923763164501E-2</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>31435</v>
       </c>
@@ -35694,7 +35701,7 @@
         <v>1.14950563462352</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>31899</v>
       </c>
@@ -35741,7 +35748,7 @@
         <v>-0.78090206124461603</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>32242</v>
       </c>
@@ -35788,7 +35795,7 @@
         <v>-0.93334903620148302</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>32853</v>
       </c>
@@ -35835,7 +35842,7 @@
         <v>2.7198416508927301</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>34589</v>
       </c>
@@ -35882,7 +35889,7 @@
         <v>1.8165406742796499</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>36355</v>
       </c>
@@ -35929,7 +35936,7 @@
         <v>-0.29243976914047298</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>36595</v>
       </c>
@@ -35976,7 +35983,7 @@
         <v>1.17239242324807</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>36655</v>
       </c>
@@ -36023,7 +36030,7 @@
         <v>-0.50473016458630104</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>36748</v>
       </c>
@@ -36070,7 +36077,7 @@
         <v>0.66457414989751695</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>36918</v>
       </c>
@@ -36117,7 +36124,7 @@
         <v>-1.1114498616959001</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>36924</v>
       </c>
@@ -36164,7 +36171,7 @@
         <v>1.9151486139501499</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>36932</v>
       </c>
@@ -36211,7 +36218,7 @@
         <v>-0.119006975589246</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>36936</v>
       </c>
@@ -36258,7 +36265,7 @@
         <v>-0.47079705813337203</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>36940</v>
       </c>
@@ -36305,7 +36312,7 @@
         <v>2.4946579491209802</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>36941</v>
       </c>
@@ -36352,7 +36359,7 @@
         <v>-1.26279129328453</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>36942</v>
       </c>
@@ -36399,7 +36406,7 @@
         <v>1.30593196839069</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>36943</v>
       </c>
@@ -36446,7 +36453,7 @@
         <v>1.5265372403086701</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>36948</v>
       </c>
@@ -36493,7 +36500,7 @@
         <v>1.1072046712183701</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>36955</v>
       </c>
@@ -36540,7 +36547,7 @@
         <v>0.13793769333161399</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>36976</v>
       </c>
@@ -36587,7 +36594,7 @@
         <v>0.33429384645764698</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>36992</v>
       </c>
@@ -36634,7 +36641,7 @@
         <v>1.28221336907465</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>36993</v>
       </c>
@@ -36681,7 +36688,7 @@
         <v>1.0924669555355999</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>36998</v>
       </c>
@@ -36728,7 +36735,7 @@
         <v>1.9621317117485999</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>37006</v>
       </c>
@@ -36775,7 +36782,7 @@
         <v>7.8544770649196502E-2</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>37008</v>
       </c>
@@ -36822,7 +36829,7 @@
         <v>-0.68032630118741999</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>37014</v>
       </c>
@@ -36869,7 +36876,7 @@
         <v>0.84512849878062102</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>37015</v>
       </c>
@@ -36916,7 +36923,7 @@
         <v>1.90523336024228</v>
       </c>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>37020</v>
       </c>
@@ -36963,7 +36970,7 @@
         <v>1.0309679036697901</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>37022</v>
       </c>
@@ -37010,7 +37017,7 @@
         <v>-1.40927161705542</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>37027</v>
       </c>
@@ -37057,7 +37064,7 @@
         <v>-0.76918008942417304</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>37029</v>
       </c>
@@ -37104,7 +37111,7 @@
         <v>-0.69956688599831296</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>37034</v>
       </c>
@@ -37151,7 +37158,7 @@
         <v>1.7627341323816801</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>37035</v>
       </c>
@@ -37198,7 +37205,7 @@
         <v>-1.75304282868075</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>37036</v>
       </c>
@@ -37245,7 +37252,7 @@
         <v>2.0049621481190898</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>37039</v>
       </c>
@@ -37292,7 +37299,7 @@
         <v>-2.1410237477828802</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>37042</v>
       </c>
@@ -37339,7 +37346,7 @@
         <v>2.3290900481799799</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>37043</v>
       </c>
@@ -37386,7 +37393,7 @@
         <v>0.88755780365529402</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>37045</v>
       </c>
@@ -37433,7 +37440,7 @@
         <v>1.6921652176964701</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>37046</v>
       </c>
@@ -37480,7 +37487,7 @@
         <v>-0.56503504217366396</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>37058</v>
       </c>
@@ -37527,7 +37534,7 @@
         <v>-1.2235203395630601</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>37062</v>
       </c>
@@ -37574,7 +37581,7 @@
         <v>-1.7910570555584799</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>37070</v>
       </c>
@@ -37621,7 +37628,7 @@
         <v>-2.4226429962318501</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>37072</v>
       </c>
@@ -37668,7 +37675,7 @@
         <v>2.0138036295132302</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>37075</v>
       </c>
@@ -37715,7 +37722,7 @@
         <v>-6.0399010980657801E-2</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>37080</v>
       </c>
@@ -37762,7 +37769,7 @@
         <v>0.76887721237997997</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>37084</v>
       </c>
@@ -37809,7 +37816,7 @@
         <v>-1.70312997091281</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>37087</v>
       </c>
@@ -37856,7 +37863,7 @@
         <v>1.39992379178613</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>37091</v>
       </c>
@@ -37903,7 +37910,7 @@
         <v>2.9302921861383799</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>37093</v>
       </c>
@@ -37950,7 +37957,7 @@
         <v>1.98893530900966</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>37095</v>
       </c>
@@ -37997,7 +38004,7 @@
         <v>0.243633629813131</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>37096</v>
       </c>
@@ -38044,7 +38051,7 @@
         <v>1.4082204630305999</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>37110</v>
       </c>
@@ -38091,7 +38098,7 @@
         <v>1.6399766018023201</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>37118</v>
       </c>
@@ -38138,7 +38145,7 @@
         <v>-0.36718779807147001</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>37119</v>
       </c>
@@ -38185,7 +38192,7 @@
         <v>2.7208854223084198</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>37131</v>
       </c>
@@ -38232,7 +38239,7 @@
         <v>2.3022102257814501</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>37137</v>
       </c>
@@ -38279,7 +38286,7 @@
         <v>2.5466745358642799</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>37220</v>
       </c>
@@ -38326,7 +38333,7 @@
         <v>2.49894030074877</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>37327</v>
       </c>
@@ -38373,7 +38380,7 @@
         <v>-1.05379608571461</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>37337</v>
       </c>
@@ -38420,7 +38427,7 @@
         <v>2.3280344159290598</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>37382</v>
       </c>
@@ -38467,7 +38474,7 @@
         <v>-2.7823728719247098</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>37393</v>
       </c>
@@ -38514,7 +38521,7 @@
         <v>2.2087483725198802</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>37413</v>
       </c>
@@ -38561,7 +38568,7 @@
         <v>2.7014223920065601</v>
       </c>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>37418</v>
       </c>
@@ -38608,7 +38615,7 @@
         <v>0.66741404806797899</v>
       </c>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>37468</v>
       </c>
@@ -38655,7 +38662,7 @@
         <v>-2.6024086600348002</v>
       </c>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>37496</v>
       </c>
@@ -38702,7 +38709,7 @@
         <v>-2.2557078716614201</v>
       </c>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>37530</v>
       </c>
@@ -38749,7 +38756,7 @@
         <v>0.72906936607792905</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>37554</v>
       </c>
@@ -38796,7 +38803,7 @@
         <v>-1.8091293965253501</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>37557</v>
       </c>
@@ -38843,7 +38850,7 @@
         <v>-0.18918970595322099</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>37581</v>
       </c>
@@ -38890,7 +38897,7 @@
         <v>0.84571533287548395</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>37582</v>
       </c>
@@ -38937,7 +38944,7 @@
         <v>-0.93222700256576696</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>37583</v>
       </c>
@@ -38984,7 +38991,7 @@
         <v>-0.53384019468900401</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>37591</v>
       </c>
@@ -39031,7 +39038,7 @@
         <v>0.26360066020609502</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>37747</v>
       </c>
@@ -39078,7 +39085,7 @@
         <v>1.43542738340856</v>
       </c>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>37914</v>
       </c>
@@ -39125,7 +39132,7 @@
         <v>1.9278961199187501</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>37983</v>
       </c>
@@ -39172,7 +39179,7 @@
         <v>1.3895451686688201E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>38144</v>
       </c>
@@ -39219,7 +39226,7 @@
         <v>-1.5305679008501001</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>38211</v>
       </c>
@@ -39266,7 +39273,7 @@
         <v>1.3641941020070201</v>
       </c>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>38222</v>
       </c>
@@ -39313,7 +39320,7 @@
         <v>1.8865390924507801</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>38378</v>
       </c>
@@ -39360,7 +39367,7 @@
         <v>1.7122895782733101</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>38418</v>
       </c>
@@ -39407,7 +39414,7 @@
         <v>-1.49245415175091</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>38448</v>
       </c>
@@ -39454,7 +39461,7 @@
         <v>-1.01485193375933</v>
       </c>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>38496</v>
       </c>
@@ -39501,7 +39508,7 @@
         <v>-0.76212114101314299</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>38507</v>
       </c>
@@ -39548,7 +39555,7 @@
         <v>1.1829221454004799</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>38540</v>
       </c>
@@ -39595,7 +39602,7 @@
         <v>0.46297815496273698</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>38542</v>
       </c>
@@ -39642,7 +39649,7 @@
         <v>-0.317078118211644</v>
       </c>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>38558</v>
       </c>
@@ -39689,7 +39696,7 @@
         <v>-0.50130145168676199</v>
       </c>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>38567</v>
       </c>
@@ -39736,7 +39743,7 @@
         <v>0.50123264465192396</v>
       </c>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>38580</v>
       </c>
@@ -39783,7 +39790,7 @@
         <v>1.3316694367175399</v>
       </c>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>38588</v>
       </c>
@@ -39830,7 +39837,7 @@
         <v>2.41842208383716</v>
       </c>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>38597</v>
       </c>
@@ -39877,7 +39884,7 @@
         <v>-2.1369436693525401</v>
       </c>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>38598</v>
       </c>
@@ -39924,7 +39931,7 @@
         <v>1.17928010818853</v>
       </c>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>38599</v>
       </c>
@@ -39971,7 +39978,7 @@
         <v>0.482163892084366</v>
       </c>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>38606</v>
       </c>
@@ -40018,7 +40025,7 @@
         <v>1.93729871861796</v>
       </c>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>38607</v>
       </c>
@@ -40065,7 +40072,7 @@
         <v>0.27379076853261203</v>
       </c>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>38672</v>
       </c>
@@ -40112,7 +40119,7 @@
         <v>2.2045943856114101</v>
       </c>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>38702</v>
       </c>
@@ -40159,7 +40166,7 @@
         <v>0.98525475238935301</v>
       </c>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>38717</v>
       </c>
@@ -40206,7 +40213,7 @@
         <v>-0.52349266458743704</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>38752</v>
       </c>
@@ -40253,7 +40260,7 @@
         <v>-1.6606706057752001</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>38754</v>
       </c>
@@ -40300,7 +40307,7 @@
         <v>1.68581558007178</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>38770</v>
       </c>
@@ -40347,7 +40354,7 @@
         <v>0.67560294321859304</v>
       </c>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>38784</v>
       </c>
@@ -40394,7 +40401,7 @@
         <v>-0.85930962694198498</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>38787</v>
       </c>
@@ -40441,7 +40448,7 @@
         <v>-1.16266699949844</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>38798</v>
       </c>
@@ -40488,7 +40495,7 @@
         <v>0.48135678460959103</v>
       </c>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>39136</v>
       </c>
@@ -40535,7 +40542,7 @@
         <v>1.4726228011772899</v>
       </c>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>39197</v>
       </c>
@@ -40582,7 +40589,7 @@
         <v>2.0280947798461799</v>
       </c>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>39308</v>
       </c>
@@ -40629,7 +40636,7 @@
         <v>-1.5922822958741101</v>
       </c>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>39776</v>
       </c>
@@ -40676,7 +40683,7 @@
         <v>1.45404803877458</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>40145</v>
       </c>
@@ -40723,7 +40730,7 @@
         <v>2.1176017749595002</v>
       </c>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>40333</v>
       </c>
@@ -40770,7 +40777,7 @@
         <v>2.6344772026305501</v>
       </c>
     </row>
-    <row r="849" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>40368</v>
       </c>
@@ -40817,7 +40824,7 @@
         <v>-0.18694534014384401</v>
       </c>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>40386</v>
       </c>
@@ -40864,7 +40871,7 @@
         <v>-0.697261656566735</v>
       </c>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>40592</v>
       </c>
@@ -40911,7 +40918,7 @@
         <v>0.48739615883121901</v>
       </c>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>40616</v>
       </c>
@@ -40958,7 +40965,7 @@
         <v>1.3348501636071901</v>
       </c>
     </row>
-    <row r="853" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>40636</v>
       </c>
@@ -41005,7 +41012,7 @@
         <v>2.76966821279622E-2</v>
       </c>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>40801</v>
       </c>
@@ -41052,7 +41059,7 @@
         <v>1.26909551461585</v>
       </c>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>40812</v>
       </c>
@@ -41099,7 +41106,7 @@
         <v>1.8440268858645701</v>
       </c>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>40921</v>
       </c>
@@ -41146,7 +41153,7 @@
         <v>2.97277015454898</v>
       </c>
     </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>40936</v>
       </c>
@@ -41193,7 +41200,7 @@
         <v>-0.16583486508933601</v>
       </c>
     </row>
-    <row r="858" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>41132</v>
       </c>
@@ -41240,7 +41247,7 @@
         <v>1.97684699796374</v>
       </c>
     </row>
-    <row r="859" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>41152</v>
       </c>
@@ -41287,7 +41294,7 @@
         <v>1.49460863585182</v>
       </c>
     </row>
-    <row r="860" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>41170</v>
       </c>
@@ -41334,7 +41341,7 @@
         <v>0.74116363114563799</v>
       </c>
     </row>
-    <row r="861" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>41193</v>
       </c>
@@ -41381,7 +41388,7 @@
         <v>1.82372476946004</v>
       </c>
     </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>41249</v>
       </c>
@@ -41428,7 +41435,7 @@
         <v>1.5360540979605599</v>
       </c>
     </row>
-    <row r="863" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>41311</v>
       </c>
@@ -41475,7 +41482,7 @@
         <v>0.498173043983898</v>
       </c>
     </row>
-    <row r="864" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>45405</v>
       </c>
@@ -41522,7 +41529,7 @@
         <v>2.56926568969606</v>
       </c>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>45460</v>
       </c>
@@ -41569,7 +41576,7 @@
         <v>-1.1711999894212699</v>
       </c>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>45520</v>
       </c>
@@ -41616,7 +41623,7 @@
         <v>1.8599689508632899</v>
       </c>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>45581</v>
       </c>
@@ -41663,7 +41670,7 @@
         <v>-1.07603079452615</v>
       </c>
     </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>45642</v>
       </c>
@@ -41710,7 +41717,7 @@
         <v>0.78189187396093196</v>
       </c>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>45705</v>
       </c>
@@ -41757,7 +41764,7 @@
         <v>-0.69826670522618395</v>
       </c>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>45996</v>
       </c>
@@ -41804,7 +41811,7 @@
         <v>0.22731721373284</v>
       </c>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>46047</v>
       </c>
@@ -41851,7 +41858,7 @@
         <v>0.37060578054147603</v>
       </c>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>46079</v>
       </c>
@@ -41898,7 +41905,7 @@
         <v>0.363558725488214</v>
       </c>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>46175</v>
       </c>
@@ -41945,7 +41952,7 @@
         <v>1.97664035402969</v>
       </c>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>46226</v>
       </c>
@@ -41992,7 +41999,7 @@
         <v>0.155672254862075</v>
       </c>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>46229</v>
       </c>
@@ -42039,7 +42046,7 @@
         <v>-0.12197829905620799</v>
       </c>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>46235</v>
       </c>
@@ -42086,7 +42093,7 @@
         <v>-0.48955387389645399</v>
       </c>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>46266</v>
       </c>
@@ -42133,7 +42140,7 @@
         <v>6.0269505281316298E-2</v>
       </c>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>46276</v>
       </c>
@@ -42180,7 +42187,7 @@
         <v>-1.23590023634419</v>
       </c>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>46299</v>
       </c>
@@ -42227,7 +42234,7 @@
         <v>2.8656662820067198</v>
       </c>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>46372</v>
       </c>
@@ -42274,7 +42281,7 @@
         <v>-1.6679644352833001</v>
       </c>
     </row>
-    <row r="881" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>46377</v>
       </c>
@@ -42321,7 +42328,7 @@
         <v>0.52735449515127597</v>
       </c>
     </row>
-    <row r="882" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>46379</v>
       </c>
@@ -42368,7 +42375,7 @@
         <v>-1.2121429160783099</v>
       </c>
     </row>
-    <row r="883" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>46585</v>
       </c>
@@ -42415,7 +42422,7 @@
         <v>0.377677886388263</v>
       </c>
     </row>
-    <row r="884" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>46599</v>
       </c>
@@ -42462,7 +42469,7 @@
         <v>0.92008643033863802</v>
       </c>
     </row>
-    <row r="885" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>46603</v>
       </c>
@@ -42509,7 +42516,7 @@
         <v>-0.31546091094923301</v>
       </c>
     </row>
-    <row r="886" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>46619</v>
       </c>
@@ -42556,7 +42563,7 @@
         <v>-0.201578631577989</v>
       </c>
     </row>
-    <row r="887" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>46625</v>
       </c>
@@ -42603,7 +42610,7 @@
         <v>0.524535156541164</v>
       </c>
     </row>
-    <row r="888" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>46626</v>
       </c>
@@ -42650,7 +42657,7 @@
         <v>-1.9138949496597599</v>
       </c>
     </row>
-    <row r="889" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>46639</v>
       </c>
@@ -42697,7 +42704,7 @@
         <v>-2.0087278184312098</v>
       </c>
     </row>
-    <row r="890" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>46647</v>
       </c>
@@ -42744,7 +42751,7 @@
         <v>-1.4267320302701301</v>
       </c>
     </row>
-    <row r="891" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>46656</v>
       </c>
@@ -42791,7 +42798,7 @@
         <v>1.67255152598898</v>
       </c>
     </row>
-    <row r="892" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>46664</v>
       </c>
@@ -42838,7 +42845,7 @@
         <v>7.1860441938427499E-2</v>
       </c>
     </row>
-    <row r="893" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>46670</v>
       </c>
@@ -42885,7 +42892,7 @@
         <v>1.42210942281437</v>
       </c>
     </row>
-    <row r="894" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>46674</v>
       </c>
@@ -42932,7 +42939,7 @@
         <v>-1.24704447505445</v>
       </c>
     </row>
-    <row r="895" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>46687</v>
       </c>
@@ -42979,7 +42986,7 @@
         <v>1.3629630373917601</v>
       </c>
     </row>
-    <row r="896" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>46691</v>
       </c>
@@ -43026,7 +43033,7 @@
         <v>0.47851825131620301</v>
       </c>
     </row>
-    <row r="897" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>46693</v>
       </c>
@@ -43073,7 +43080,7 @@
         <v>0.35657250905027699</v>
       </c>
     </row>
-    <row r="898" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>46697</v>
       </c>
@@ -43120,7 +43127,7 @@
         <v>0.402308662629693</v>
       </c>
     </row>
-    <row r="899" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>46699</v>
       </c>
@@ -43167,7 +43174,7 @@
         <v>-0.734671226148224</v>
       </c>
     </row>
-    <row r="900" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>46703</v>
       </c>
@@ -43214,7 +43221,7 @@
         <v>1.8174462851009801</v>
       </c>
     </row>
-    <row r="901" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>46706</v>
       </c>
@@ -43261,7 +43268,7 @@
         <v>-0.42927541093605498</v>
       </c>
     </row>
-    <row r="902" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>46712</v>
       </c>
@@ -43308,7 +43315,7 @@
         <v>-1.8098795772171002E-2</v>
       </c>
     </row>
-    <row r="903" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>46718</v>
       </c>
@@ -43355,7 +43362,7 @@
         <v>-0.55249165589321902</v>
       </c>
     </row>
-    <row r="904" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>46724</v>
       </c>
@@ -43402,7 +43409,7 @@
         <v>0.36464441877130099</v>
       </c>
     </row>
-    <row r="905" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>46734</v>
       </c>
@@ -43449,7 +43456,7 @@
         <v>0.58362262409366505</v>
       </c>
     </row>
-    <row r="906" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>46737</v>
       </c>
@@ -43496,7 +43503,7 @@
         <v>-2.1811059095722899E-2</v>
       </c>
     </row>
-    <row r="907" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>46740</v>
       </c>
@@ -43543,7 +43550,7 @@
         <v>-2.5112702802044198</v>
       </c>
     </row>
-    <row r="908" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>46743</v>
       </c>
@@ -43590,7 +43597,7 @@
         <v>1.70890891975396</v>
       </c>
     </row>
-    <row r="909" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>46744</v>
       </c>
@@ -43637,7 +43644,7 @@
         <v>3.4278667288784201</v>
       </c>
     </row>
-    <row r="910" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>46749</v>
       </c>
@@ -43684,7 +43691,7 @@
         <v>-0.483459170343913</v>
       </c>
     </row>
-    <row r="911" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>46752</v>
       </c>
@@ -43731,7 +43738,7 @@
         <v>-1.6795777668607501</v>
       </c>
     </row>
-    <row r="912" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>46753</v>
       </c>
@@ -43778,7 +43785,7 @@
         <v>-0.17676692417263901</v>
       </c>
     </row>
-    <row r="913" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>46755</v>
       </c>
@@ -43825,7 +43832,7 @@
         <v>-1.21198674611167</v>
       </c>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>46761</v>
       </c>
@@ -43872,7 +43879,7 @@
         <v>-2.2524140886435902</v>
       </c>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>46770</v>
       </c>
@@ -43919,7 +43926,7 @@
         <v>-0.17511023714397</v>
       </c>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>46772</v>
       </c>
@@ -43966,7 +43973,7 @@
         <v>0.11430751762612699</v>
       </c>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>46775</v>
       </c>
@@ -44013,7 +44020,7 @@
         <v>-0.66768812717904602</v>
       </c>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>46782</v>
       </c>
@@ -44060,7 +44067,7 @@
         <v>-0.75723923244156699</v>
       </c>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>46800</v>
       </c>
@@ -44107,7 +44114,7 @@
         <v>-4.4261161962149902E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>46807</v>
       </c>
@@ -44154,7 +44161,7 @@
         <v>-1.0078353879966799</v>
       </c>
     </row>
-    <row r="921" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>46812</v>
       </c>
@@ -44201,7 +44208,7 @@
         <v>1.0203115527056299</v>
       </c>
     </row>
-    <row r="922" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>46837</v>
       </c>
@@ -44248,7 +44255,7 @@
         <v>-0.54539901202282903</v>
       </c>
     </row>
-    <row r="923" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>46849</v>
       </c>
@@ -44295,7 +44302,7 @@
         <v>0.63564093838285696</v>
       </c>
     </row>
-    <row r="924" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>46855</v>
       </c>
@@ -44342,7 +44349,7 @@
         <v>0.28910322295461999</v>
       </c>
     </row>
-    <row r="925" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>46860</v>
       </c>
@@ -44389,7 +44396,7 @@
         <v>0.127447188534978</v>
       </c>
     </row>
-    <row r="926" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>46865</v>
       </c>
@@ -44436,7 +44443,7 @@
         <v>-0.111195541771839</v>
       </c>
     </row>
-    <row r="927" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>46870</v>
       </c>
@@ -44483,7 +44490,7 @@
         <v>-0.360980700748459</v>
       </c>
     </row>
-    <row r="928" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>46878</v>
       </c>
@@ -44530,7 +44537,7 @@
         <v>-2.1874655875813498</v>
       </c>
     </row>
-    <row r="929" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>46890</v>
       </c>
@@ -44577,7 +44584,7 @@
         <v>0.213330724339441</v>
       </c>
     </row>
-    <row r="930" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>46896</v>
       </c>
@@ -44624,7 +44631,7 @@
         <v>4.5511736351699E-2</v>
       </c>
     </row>
-    <row r="931" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>46900</v>
       </c>
@@ -44671,7 +44678,7 @@
         <v>0.88095252097893495</v>
       </c>
     </row>
-    <row r="932" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>46901</v>
       </c>
@@ -44718,7 +44725,7 @@
         <v>3.0599786107378799</v>
       </c>
     </row>
-    <row r="933" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>46905</v>
       </c>
@@ -44765,7 +44772,7 @@
         <v>0.86100118927332903</v>
       </c>
     </row>
-    <row r="934" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>46906</v>
       </c>
@@ -44812,7 +44819,7 @@
         <v>0.62898577174097103</v>
       </c>
     </row>
-    <row r="935" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>46911</v>
       </c>
@@ -44859,7 +44866,7 @@
         <v>1.9360597599463201</v>
       </c>
     </row>
-    <row r="936" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>46913</v>
       </c>
@@ -44906,7 +44913,7 @@
         <v>8.97437571655645E-2</v>
       </c>
     </row>
-    <row r="937" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>46918</v>
       </c>
@@ -44953,7 +44960,7 @@
         <v>4.76873461327827E-2</v>
       </c>
     </row>
-    <row r="938" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>46940</v>
       </c>
@@ -45000,7 +45007,7 @@
         <v>2.1758535064083602</v>
       </c>
     </row>
-    <row r="939" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>46949</v>
       </c>
@@ -45047,7 +45054,7 @@
         <v>-0.55838628280971503</v>
       </c>
     </row>
-    <row r="940" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>46951</v>
       </c>
@@ -45094,7 +45101,7 @@
         <v>0.33012263953120102</v>
       </c>
     </row>
-    <row r="941" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>46964</v>
       </c>
@@ -45141,7 +45148,7 @@
         <v>-0.73884013586295705</v>
       </c>
     </row>
-    <row r="942" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>46965</v>
       </c>
@@ -45188,7 +45195,7 @@
         <v>-0.69755942485935196</v>
       </c>
     </row>
-    <row r="943" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>46975</v>
       </c>
@@ -45235,7 +45242,7 @@
         <v>2.6208937733229899E-3</v>
       </c>
     </row>
-    <row r="944" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>46979</v>
       </c>
@@ -45282,7 +45289,7 @@
         <v>2.7799735774688101</v>
       </c>
     </row>
-    <row r="945" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>47014</v>
       </c>
@@ -45329,7 +45336,7 @@
         <v>1.7736709292727899</v>
       </c>
     </row>
-    <row r="946" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>47028</v>
       </c>
@@ -45376,7 +45383,7 @@
         <v>1.9734436185816</v>
       </c>
     </row>
-    <row r="947" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>47049</v>
       </c>
@@ -45423,7 +45430,7 @@
         <v>-3.8559585867868298E-2</v>
       </c>
     </row>
-    <row r="948" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>47058</v>
       </c>
@@ -45470,7 +45477,7 @@
         <v>-0.96579881535868095</v>
       </c>
     </row>
-    <row r="949" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>47060</v>
       </c>
@@ -45517,7 +45524,7 @@
         <v>-0.53508447614051102</v>
       </c>
     </row>
-    <row r="950" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>47066</v>
       </c>
@@ -45564,7 +45571,7 @@
         <v>0.21831200515170099</v>
       </c>
     </row>
-    <row r="951" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>47070</v>
       </c>
@@ -45611,7 +45618,7 @@
         <v>1.7783518569805301</v>
       </c>
     </row>
-    <row r="952" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>47075</v>
       </c>
@@ -45658,7 +45665,7 @@
         <v>0.18894512923116799</v>
       </c>
     </row>
-    <row r="953" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>47079</v>
       </c>
@@ -45705,7 +45712,7 @@
         <v>0.83663481380247895</v>
       </c>
     </row>
-    <row r="954" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>47092</v>
       </c>
@@ -45752,7 +45759,7 @@
         <v>1.7171386750968001</v>
       </c>
     </row>
-    <row r="955" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>47096</v>
       </c>
@@ -45799,7 +45806,7 @@
         <v>-0.97688703689464396</v>
       </c>
     </row>
-    <row r="956" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>47110</v>
       </c>
@@ -45846,7 +45853,7 @@
         <v>-0.32384522994520698</v>
       </c>
     </row>
-    <row r="957" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>47112</v>
       </c>
@@ -45893,7 +45900,7 @@
         <v>-0.67365869951440704</v>
       </c>
     </row>
-    <row r="958" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>47128</v>
       </c>
@@ -45940,7 +45947,7 @@
         <v>-1.8211715782293201</v>
       </c>
     </row>
-    <row r="959" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>47140</v>
       </c>
@@ -45987,7 +45994,7 @@
         <v>1.4613229959437599</v>
       </c>
     </row>
-    <row r="960" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>47178</v>
       </c>
@@ -46034,7 +46041,7 @@
         <v>-2.5281572675225399</v>
       </c>
     </row>
-    <row r="961" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>47192</v>
       </c>
@@ -46081,7 +46088,7 @@
         <v>0.37788390501116698</v>
       </c>
     </row>
-    <row r="962" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>47201</v>
       </c>
@@ -46128,7 +46135,7 @@
         <v>0.23695107416250599</v>
       </c>
     </row>
-    <row r="963" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>47750</v>
       </c>
@@ -46175,7 +46182,7 @@
         <v>2.64053837456634</v>
       </c>
     </row>
-    <row r="964" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>47777</v>
       </c>
@@ -46222,7 +46229,7 @@
         <v>-6.8480792601561494E-2</v>
       </c>
     </row>
-    <row r="965" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>47782</v>
       </c>
@@ -46269,7 +46276,7 @@
         <v>-1.28572903878419</v>
       </c>
     </row>
-    <row r="966" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>47788</v>
       </c>
@@ -46316,7 +46323,7 @@
         <v>2.6646487252196001</v>
       </c>
     </row>
-    <row r="967" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>47789</v>
       </c>
@@ -46363,7 +46370,7 @@
         <v>-1.3691712646318299</v>
       </c>
     </row>
-    <row r="968" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>47794</v>
       </c>
@@ -46410,7 +46417,7 @@
         <v>0.58158938807342098</v>
       </c>
     </row>
-    <row r="969" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>47795</v>
       </c>
@@ -46457,7 +46464,7 @@
         <v>-0.112352451065894</v>
       </c>
     </row>
-    <row r="970" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>47796</v>
       </c>
@@ -46504,7 +46511,7 @@
         <v>0.68289926177515503</v>
       </c>
     </row>
-    <row r="971" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>47800</v>
       </c>
@@ -46551,7 +46558,7 @@
         <v>-0.23442017038511001</v>
       </c>
     </row>
-    <row r="972" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>47801</v>
       </c>
@@ -46598,7 +46605,7 @@
         <v>-0.67511417266393203</v>
       </c>
     </row>
-    <row r="973" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>47817</v>
       </c>
@@ -46645,7 +46652,7 @@
         <v>2.1771858620261302</v>
       </c>
     </row>
-    <row r="974" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>47819</v>
       </c>
@@ -46692,7 +46699,7 @@
         <v>-1.9015095564217299</v>
       </c>
     </row>
-    <row r="975" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>47833</v>
       </c>
@@ -46739,7 +46746,7 @@
         <v>-0.54040939281896605</v>
       </c>
     </row>
-    <row r="976" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>47841</v>
       </c>
@@ -46786,7 +46793,7 @@
         <v>0.79398058172154995</v>
       </c>
     </row>
-    <row r="977" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>47843</v>
       </c>
@@ -46833,7 +46840,7 @@
         <v>-2.58559583870887</v>
       </c>
     </row>
-    <row r="978" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>47845</v>
       </c>
@@ -46880,7 +46887,7 @@
         <v>-0.59957043057583903</v>
       </c>
     </row>
-    <row r="979" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>47846</v>
       </c>
@@ -46927,7 +46934,7 @@
         <v>-0.28423265809353798</v>
       </c>
     </row>
-    <row r="980" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>47849</v>
       </c>
@@ -46974,7 +46981,7 @@
         <v>-1.7094232488179699</v>
       </c>
     </row>
-    <row r="981" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>47854</v>
       </c>
@@ -47021,7 +47028,7 @@
         <v>0.77908286931397197</v>
       </c>
     </row>
-    <row r="982" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>47860</v>
       </c>
@@ -47068,7 +47075,7 @@
         <v>-0.605300876607201</v>
       </c>
     </row>
-    <row r="983" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>47871</v>
       </c>
@@ -47115,7 +47122,7 @@
         <v>-0.74471446160712096</v>
       </c>
     </row>
-    <row r="984" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>47872</v>
       </c>
@@ -47162,7 +47169,7 @@
         <v>0.713964029718824</v>
       </c>
     </row>
-    <row r="985" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>47873</v>
       </c>
@@ -47209,7 +47216,7 @@
         <v>0.69664340118926005</v>
       </c>
     </row>
-    <row r="986" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>47875</v>
       </c>
@@ -47256,7 +47263,7 @@
         <v>1.5439405181665999</v>
       </c>
     </row>
-    <row r="987" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>47877</v>
       </c>
@@ -47303,7 +47310,7 @@
         <v>0.966479532769558</v>
       </c>
     </row>
-    <row r="988" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>47879</v>
       </c>
@@ -47350,7 +47357,7 @@
         <v>-0.66001433229920603</v>
       </c>
     </row>
-    <row r="989" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>47881</v>
       </c>
@@ -47397,7 +47404,7 @@
         <v>0.54939702419554404</v>
       </c>
     </row>
-    <row r="990" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>47883</v>
       </c>
@@ -47444,7 +47451,7 @@
         <v>0.94652037866755301</v>
       </c>
     </row>
-    <row r="991" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>47885</v>
       </c>
@@ -47491,7 +47498,7 @@
         <v>0.66629948234218905</v>
       </c>
     </row>
-    <row r="992" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>47889</v>
       </c>
@@ -47538,7 +47545,7 @@
         <v>1.52496842160714</v>
       </c>
     </row>
-    <row r="993" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>47891</v>
       </c>
@@ -47585,7 +47592,7 @@
         <v>0.241086935640136</v>
       </c>
     </row>
-    <row r="994" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>47895</v>
       </c>
@@ -47632,7 +47639,7 @@
         <v>0.76226850888975295</v>
       </c>
     </row>
-    <row r="995" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>47898</v>
       </c>
@@ -47679,7 +47686,7 @@
         <v>-7.6256700696244198E-2</v>
       </c>
     </row>
-    <row r="996" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>47899</v>
       </c>
@@ -47726,7 +47733,7 @@
         <v>1.4292843843394001</v>
       </c>
     </row>
-    <row r="997" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>47900</v>
       </c>
@@ -47773,7 +47780,7 @@
         <v>-1.2699709695292101</v>
       </c>
     </row>
-    <row r="998" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>47907</v>
       </c>
@@ -47820,7 +47827,7 @@
         <v>-0.57440972284320102</v>
       </c>
     </row>
-    <row r="999" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>47908</v>
       </c>
@@ -47867,7 +47874,7 @@
         <v>0.62926169945774701</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>47910</v>
       </c>
@@ -47914,7 +47921,7 @@
         <v>0.313738571893318</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>47911</v>
       </c>
@@ -47961,7 +47968,7 @@
         <v>-1.3178965799934901</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>47912</v>
       </c>
@@ -48008,7 +48015,7 @@
         <v>1.09479630144996</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>47918</v>
       </c>
@@ -48055,7 +48062,7 @@
         <v>1.36334031445946</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>47923</v>
       </c>
@@ -48102,7 +48109,7 @@
         <v>-1.1895770892473401</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>47924</v>
       </c>
@@ -48149,7 +48156,7 @@
         <v>-0.14442629094739501</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>47930</v>
       </c>
@@ -48196,7 +48203,7 @@
         <v>-1.24977811171916</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>47932</v>
       </c>
@@ -48243,7 +48250,7 @@
         <v>1.6726488689521399</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>47933</v>
       </c>
@@ -48290,7 +48297,7 @@
         <v>-1.17382883214125</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>47934</v>
       </c>
@@ -48337,7 +48344,7 @@
         <v>-6.8547447071896001E-2</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>47935</v>
       </c>
@@ -48384,7 +48391,7 @@
         <v>1.5944330411908501</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>47942</v>
       </c>
@@ -48431,7 +48438,7 @@
         <v>-0.5032617793352</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>47946</v>
       </c>
@@ -48478,7 +48485,7 @@
         <v>1.60627925664913</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>47947</v>
       </c>
@@ -48525,7 +48532,7 @@
         <v>2.1813864050021099</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>47952</v>
       </c>
@@ -48572,7 +48579,7 @@
         <v>-0.69349153275013597</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>47953</v>
       </c>
@@ -48619,7 +48626,7 @@
         <v>2.1207220283359298</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>47956</v>
       </c>
@@ -48666,7 +48673,7 @@
         <v>0.26298372364817801</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>47959</v>
       </c>
@@ -48713,7 +48720,7 @@
         <v>-1.29209978027592</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>47962</v>
       </c>
@@ -48760,7 +48767,7 @@
         <v>-0.87383760056900295</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>47963</v>
       </c>
@@ -48807,7 +48814,7 @@
         <v>-1.5783811931440499</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>47966</v>
       </c>
@@ -48854,7 +48861,7 @@
         <v>0.113932211283329</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>47971</v>
       </c>
@@ -48901,7 +48908,7 @@
         <v>-0.76191203271351104</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>47978</v>
       </c>
@@ -48948,7 +48955,7 @@
         <v>0.14682508073252001</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>47979</v>
       </c>
@@ -48995,7 +49002,7 @@
         <v>0.17402324850884399</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>47984</v>
       </c>
@@ -49042,7 +49049,7 @@
         <v>-0.21586446221906699</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>47991</v>
       </c>
@@ -49089,7 +49096,7 @@
         <v>0.255251669668277</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>48000</v>
       </c>
@@ -49136,7 +49143,7 @@
         <v>0.274223953849213</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>48004</v>
       </c>
@@ -49183,7 +49190,7 @@
         <v>-0.98105500229629505</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>48007</v>
       </c>
@@ -49230,7 +49237,7 @@
         <v>-0.19074726965883801</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>48013</v>
       </c>
@@ -49277,7 +49284,7 @@
         <v>7.9597901528895204E-2</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>48020</v>
       </c>
@@ -49324,7 +49331,7 @@
         <v>1.8302270360163599</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>48023</v>
       </c>
@@ -49371,7 +49378,7 @@
         <v>1.4215483319592801</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>48033</v>
       </c>
@@ -49418,7 +49425,7 @@
         <v>0.42051613148856198</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>48035</v>
       </c>
@@ -49465,7 +49472,7 @@
         <v>1.1358116073336999</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>48041</v>
       </c>
@@ -49512,7 +49519,7 @@
         <v>-0.81457188749072795</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>48051</v>
       </c>
@@ -49559,7 +49566,7 @@
         <v>-0.20357752510286101</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>48063</v>
       </c>
@@ -49606,7 +49613,7 @@
         <v>2.6229534915866601</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>48072</v>
       </c>
@@ -49653,7 +49660,7 @@
         <v>0.21597172294094599</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>48074</v>
       </c>
@@ -49700,7 +49707,7 @@
         <v>-1.9503505303797599E-2</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>48090</v>
       </c>
@@ -49747,7 +49754,7 @@
         <v>1.54475981903389</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>48093</v>
       </c>
@@ -49794,7 +49801,7 @@
         <v>-0.41917529785302099</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>48096</v>
       </c>
@@ -49841,7 +49848,7 @@
         <v>-0.11385392731642199</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>48100</v>
       </c>
@@ -49888,7 +49895,7 @@
         <v>-1.3642704933725001</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>48101</v>
       </c>
@@ -49935,7 +49942,7 @@
         <v>-0.73396175575715805</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>48102</v>
       </c>
@@ -49982,7 +49989,7 @@
         <v>-0.59365612340581198</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>48113</v>
       </c>
@@ -50029,7 +50036,7 @@
         <v>0.34474871101161098</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>48115</v>
       </c>
@@ -50076,7 +50083,7 @@
         <v>-2.3832064189487698</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>48119</v>
       </c>
@@ -50123,7 +50130,7 @@
         <v>-0.931355100252934</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>48128</v>
       </c>
@@ -50170,7 +50177,7 @@
         <v>-1.46973928515327</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>48133</v>
       </c>
@@ -50217,7 +50224,7 @@
         <v>-2.9359530474856999</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1050">
         <v>48135</v>
       </c>
@@ -50264,7 +50271,7 @@
         <v>6.2870499269060201E-2</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1051">
         <v>48139</v>
       </c>
@@ -50311,7 +50318,7 @@
         <v>-0.12187388904026</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1052">
         <v>48140</v>
       </c>
@@ -50358,7 +50365,7 @@
         <v>1.5373640859639699</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1053">
         <v>48145</v>
       </c>
@@ -50405,7 +50412,7 @@
         <v>-0.52492151339765702</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1054">
         <v>48151</v>
       </c>
@@ -50452,7 +50459,7 @@
         <v>0.31048271958983897</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1055">
         <v>48156</v>
       </c>
@@ -50499,7 +50506,7 @@
         <v>-1.5291791023707599</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1056">
         <v>48159</v>
       </c>
@@ -50546,7 +50553,7 @@
         <v>-1.0667455794154901</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1057">
         <v>48160</v>
       </c>
